--- a/main/data/overall_hicp.xlsx
+++ b/main/data/overall_hicp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/SVAR3A/main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF0366B-7F99-D841-95B4-1600B36AEE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F60C86-FB90-E649-BBA6-5DA87F624C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1042,27 +1042,32 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="9"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -15086,6 +15091,276 @@
     </row>
   </sheetData>
   <mergeCells count="287">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="EN9:EO9"/>
+    <mergeCell ref="EP9:EQ9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="EZ9:FA9"/>
+    <mergeCell ref="FB9:FC9"/>
+    <mergeCell ref="FD9:FE9"/>
+    <mergeCell ref="FF9:FG9"/>
+    <mergeCell ref="FH9:FI9"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FL9:FM9"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FP9:FQ9"/>
+    <mergeCell ref="FR9:FS9"/>
+    <mergeCell ref="FT9:FU9"/>
+    <mergeCell ref="FV9:FW9"/>
+    <mergeCell ref="FX9:FY9"/>
+    <mergeCell ref="FZ9:GA9"/>
+    <mergeCell ref="GB9:GC9"/>
+    <mergeCell ref="GD9:GE9"/>
+    <mergeCell ref="GF9:GG9"/>
+    <mergeCell ref="GH9:GI9"/>
+    <mergeCell ref="GJ9:GK9"/>
+    <mergeCell ref="GL9:GM9"/>
+    <mergeCell ref="GN9:GO9"/>
+    <mergeCell ref="GP9:GQ9"/>
+    <mergeCell ref="GR9:GS9"/>
+    <mergeCell ref="GT9:GU9"/>
+    <mergeCell ref="GV9:GW9"/>
+    <mergeCell ref="GX9:GY9"/>
+    <mergeCell ref="GZ9:HA9"/>
+    <mergeCell ref="HB9:HC9"/>
+    <mergeCell ref="HD9:HE9"/>
+    <mergeCell ref="HF9:HG9"/>
+    <mergeCell ref="HH9:HI9"/>
+    <mergeCell ref="HJ9:HK9"/>
+    <mergeCell ref="HL9:HM9"/>
+    <mergeCell ref="HN9:HO9"/>
+    <mergeCell ref="HP9:HQ9"/>
+    <mergeCell ref="HR9:HS9"/>
+    <mergeCell ref="HT9:HU9"/>
+    <mergeCell ref="HV9:HW9"/>
+    <mergeCell ref="HX9:HY9"/>
+    <mergeCell ref="HZ9:IA9"/>
+    <mergeCell ref="IB9:IC9"/>
+    <mergeCell ref="ID9:IE9"/>
+    <mergeCell ref="IF9:IG9"/>
+    <mergeCell ref="IH9:II9"/>
+    <mergeCell ref="IJ9:IK9"/>
+    <mergeCell ref="IL9:IM9"/>
+    <mergeCell ref="IN9:IO9"/>
+    <mergeCell ref="IP9:IQ9"/>
+    <mergeCell ref="IR9:IS9"/>
+    <mergeCell ref="IT9:IU9"/>
+    <mergeCell ref="IV9:IW9"/>
+    <mergeCell ref="IX9:IY9"/>
+    <mergeCell ref="IZ9:JA9"/>
+    <mergeCell ref="JB9:JC9"/>
+    <mergeCell ref="JD9:JE9"/>
+    <mergeCell ref="JF9:JG9"/>
+    <mergeCell ref="JH9:JI9"/>
+    <mergeCell ref="JJ9:JK9"/>
+    <mergeCell ref="JL9:JM9"/>
+    <mergeCell ref="JN9:JO9"/>
+    <mergeCell ref="JP9:JQ9"/>
+    <mergeCell ref="JR9:JS9"/>
+    <mergeCell ref="JT9:JU9"/>
+    <mergeCell ref="JV9:JW9"/>
+    <mergeCell ref="JX9:JY9"/>
+    <mergeCell ref="JZ9:KA9"/>
+    <mergeCell ref="KB9:KC9"/>
+    <mergeCell ref="KD9:KE9"/>
+    <mergeCell ref="KF9:KG9"/>
+    <mergeCell ref="KH9:KI9"/>
+    <mergeCell ref="KJ9:KK9"/>
+    <mergeCell ref="KL9:KM9"/>
+    <mergeCell ref="KN9:KO9"/>
+    <mergeCell ref="KP9:KQ9"/>
+    <mergeCell ref="KR9:KS9"/>
+    <mergeCell ref="KT9:KU9"/>
+    <mergeCell ref="KV9:KW9"/>
+    <mergeCell ref="KX9:KY9"/>
+    <mergeCell ref="KZ9:LA9"/>
+    <mergeCell ref="LB9:LC9"/>
+    <mergeCell ref="LD9:LE9"/>
+    <mergeCell ref="LF9:LG9"/>
+    <mergeCell ref="LH9:LI9"/>
+    <mergeCell ref="LJ9:LK9"/>
+    <mergeCell ref="LL9:LM9"/>
+    <mergeCell ref="LN9:LO9"/>
+    <mergeCell ref="LP9:LQ9"/>
+    <mergeCell ref="LR9:LS9"/>
+    <mergeCell ref="LT9:LU9"/>
+    <mergeCell ref="LV9:LW9"/>
+    <mergeCell ref="LX9:LY9"/>
+    <mergeCell ref="LZ9:MA9"/>
+    <mergeCell ref="MB9:MC9"/>
+    <mergeCell ref="MD9:ME9"/>
+    <mergeCell ref="MF9:MG9"/>
+    <mergeCell ref="MH9:MI9"/>
+    <mergeCell ref="MJ9:MK9"/>
+    <mergeCell ref="ML9:MM9"/>
+    <mergeCell ref="MN9:MO9"/>
+    <mergeCell ref="MP9:MQ9"/>
+    <mergeCell ref="MR9:MS9"/>
+    <mergeCell ref="MT9:MU9"/>
+    <mergeCell ref="MV9:MW9"/>
+    <mergeCell ref="MX9:MY9"/>
+    <mergeCell ref="MZ9:NA9"/>
+    <mergeCell ref="NB9:NC9"/>
+    <mergeCell ref="ND9:NE9"/>
+    <mergeCell ref="NF9:NG9"/>
+    <mergeCell ref="NH9:NI9"/>
+    <mergeCell ref="NJ9:NK9"/>
+    <mergeCell ref="NL9:NM9"/>
+    <mergeCell ref="NN9:NO9"/>
+    <mergeCell ref="NP9:NQ9"/>
+    <mergeCell ref="NR9:NS9"/>
+    <mergeCell ref="NT9:NU9"/>
+    <mergeCell ref="NV9:NW9"/>
+    <mergeCell ref="NX9:NY9"/>
+    <mergeCell ref="NZ9:OA9"/>
+    <mergeCell ref="OB9:OC9"/>
+    <mergeCell ref="OD9:OE9"/>
+    <mergeCell ref="OF9:OG9"/>
+    <mergeCell ref="OH9:OI9"/>
+    <mergeCell ref="OJ9:OK9"/>
+    <mergeCell ref="OL9:OM9"/>
+    <mergeCell ref="ON9:OO9"/>
+    <mergeCell ref="OP9:OQ9"/>
+    <mergeCell ref="OR9:OS9"/>
+    <mergeCell ref="OT9:OU9"/>
+    <mergeCell ref="OV9:OW9"/>
+    <mergeCell ref="OX9:OY9"/>
+    <mergeCell ref="OZ9:PA9"/>
+    <mergeCell ref="PB9:PC9"/>
+    <mergeCell ref="PD9:PE9"/>
+    <mergeCell ref="PF9:PG9"/>
+    <mergeCell ref="PH9:PI9"/>
+    <mergeCell ref="PJ9:PK9"/>
+    <mergeCell ref="PL9:PM9"/>
+    <mergeCell ref="PN9:PO9"/>
+    <mergeCell ref="PP9:PQ9"/>
+    <mergeCell ref="PR9:PS9"/>
+    <mergeCell ref="PT9:PU9"/>
+    <mergeCell ref="PV9:PW9"/>
+    <mergeCell ref="PX9:PY9"/>
+    <mergeCell ref="PZ9:QA9"/>
+    <mergeCell ref="QB9:QC9"/>
+    <mergeCell ref="QD9:QE9"/>
+    <mergeCell ref="QF9:QG9"/>
+    <mergeCell ref="QH9:QI9"/>
+    <mergeCell ref="QJ9:QK9"/>
+    <mergeCell ref="QL9:QM9"/>
+    <mergeCell ref="QN9:QO9"/>
+    <mergeCell ref="QP9:QQ9"/>
+    <mergeCell ref="QR9:QS9"/>
+    <mergeCell ref="QT9:QU9"/>
+    <mergeCell ref="QV9:QW9"/>
+    <mergeCell ref="QX9:QY9"/>
+    <mergeCell ref="QZ9:RA9"/>
+    <mergeCell ref="RB9:RC9"/>
+    <mergeCell ref="RD9:RE9"/>
+    <mergeCell ref="RF9:RG9"/>
+    <mergeCell ref="RH9:RI9"/>
+    <mergeCell ref="RJ9:RK9"/>
+    <mergeCell ref="RL9:RM9"/>
+    <mergeCell ref="RN9:RO9"/>
+    <mergeCell ref="RP9:RQ9"/>
+    <mergeCell ref="RR9:RS9"/>
+    <mergeCell ref="RT9:RU9"/>
+    <mergeCell ref="RV9:RW9"/>
+    <mergeCell ref="RX9:RY9"/>
+    <mergeCell ref="RZ9:SA9"/>
+    <mergeCell ref="SB9:SC9"/>
+    <mergeCell ref="SD9:SE9"/>
+    <mergeCell ref="SF9:SG9"/>
+    <mergeCell ref="SH9:SI9"/>
+    <mergeCell ref="SJ9:SK9"/>
+    <mergeCell ref="SL9:SM9"/>
+    <mergeCell ref="SN9:SO9"/>
+    <mergeCell ref="SP9:SQ9"/>
+    <mergeCell ref="SR9:SS9"/>
+    <mergeCell ref="ST9:SU9"/>
+    <mergeCell ref="SV9:SW9"/>
+    <mergeCell ref="SX9:SY9"/>
+    <mergeCell ref="SZ9:TA9"/>
+    <mergeCell ref="TB9:TC9"/>
+    <mergeCell ref="TD9:TE9"/>
+    <mergeCell ref="TF9:TG9"/>
+    <mergeCell ref="TH9:TI9"/>
+    <mergeCell ref="TJ9:TK9"/>
+    <mergeCell ref="TL9:TM9"/>
+    <mergeCell ref="TN9:TO9"/>
+    <mergeCell ref="TP9:TQ9"/>
+    <mergeCell ref="TR9:TS9"/>
+    <mergeCell ref="TT9:TU9"/>
     <mergeCell ref="UN9:UO9"/>
     <mergeCell ref="UP9:UQ9"/>
     <mergeCell ref="UR9:US9"/>
@@ -15103,276 +15378,6 @@
     <mergeCell ref="UH9:UI9"/>
     <mergeCell ref="UJ9:UK9"/>
     <mergeCell ref="UL9:UM9"/>
-    <mergeCell ref="TD9:TE9"/>
-    <mergeCell ref="TF9:TG9"/>
-    <mergeCell ref="TH9:TI9"/>
-    <mergeCell ref="TJ9:TK9"/>
-    <mergeCell ref="TL9:TM9"/>
-    <mergeCell ref="TN9:TO9"/>
-    <mergeCell ref="TP9:TQ9"/>
-    <mergeCell ref="TR9:TS9"/>
-    <mergeCell ref="TT9:TU9"/>
-    <mergeCell ref="SL9:SM9"/>
-    <mergeCell ref="SN9:SO9"/>
-    <mergeCell ref="SP9:SQ9"/>
-    <mergeCell ref="SR9:SS9"/>
-    <mergeCell ref="ST9:SU9"/>
-    <mergeCell ref="SV9:SW9"/>
-    <mergeCell ref="SX9:SY9"/>
-    <mergeCell ref="SZ9:TA9"/>
-    <mergeCell ref="TB9:TC9"/>
-    <mergeCell ref="RT9:RU9"/>
-    <mergeCell ref="RV9:RW9"/>
-    <mergeCell ref="RX9:RY9"/>
-    <mergeCell ref="RZ9:SA9"/>
-    <mergeCell ref="SB9:SC9"/>
-    <mergeCell ref="SD9:SE9"/>
-    <mergeCell ref="SF9:SG9"/>
-    <mergeCell ref="SH9:SI9"/>
-    <mergeCell ref="SJ9:SK9"/>
-    <mergeCell ref="RB9:RC9"/>
-    <mergeCell ref="RD9:RE9"/>
-    <mergeCell ref="RF9:RG9"/>
-    <mergeCell ref="RH9:RI9"/>
-    <mergeCell ref="RJ9:RK9"/>
-    <mergeCell ref="RL9:RM9"/>
-    <mergeCell ref="RN9:RO9"/>
-    <mergeCell ref="RP9:RQ9"/>
-    <mergeCell ref="RR9:RS9"/>
-    <mergeCell ref="QJ9:QK9"/>
-    <mergeCell ref="QL9:QM9"/>
-    <mergeCell ref="QN9:QO9"/>
-    <mergeCell ref="QP9:QQ9"/>
-    <mergeCell ref="QR9:QS9"/>
-    <mergeCell ref="QT9:QU9"/>
-    <mergeCell ref="QV9:QW9"/>
-    <mergeCell ref="QX9:QY9"/>
-    <mergeCell ref="QZ9:RA9"/>
-    <mergeCell ref="PR9:PS9"/>
-    <mergeCell ref="PT9:PU9"/>
-    <mergeCell ref="PV9:PW9"/>
-    <mergeCell ref="PX9:PY9"/>
-    <mergeCell ref="PZ9:QA9"/>
-    <mergeCell ref="QB9:QC9"/>
-    <mergeCell ref="QD9:QE9"/>
-    <mergeCell ref="QF9:QG9"/>
-    <mergeCell ref="QH9:QI9"/>
-    <mergeCell ref="OZ9:PA9"/>
-    <mergeCell ref="PB9:PC9"/>
-    <mergeCell ref="PD9:PE9"/>
-    <mergeCell ref="PF9:PG9"/>
-    <mergeCell ref="PH9:PI9"/>
-    <mergeCell ref="PJ9:PK9"/>
-    <mergeCell ref="PL9:PM9"/>
-    <mergeCell ref="PN9:PO9"/>
-    <mergeCell ref="PP9:PQ9"/>
-    <mergeCell ref="OH9:OI9"/>
-    <mergeCell ref="OJ9:OK9"/>
-    <mergeCell ref="OL9:OM9"/>
-    <mergeCell ref="ON9:OO9"/>
-    <mergeCell ref="OP9:OQ9"/>
-    <mergeCell ref="OR9:OS9"/>
-    <mergeCell ref="OT9:OU9"/>
-    <mergeCell ref="OV9:OW9"/>
-    <mergeCell ref="OX9:OY9"/>
-    <mergeCell ref="NP9:NQ9"/>
-    <mergeCell ref="NR9:NS9"/>
-    <mergeCell ref="NT9:NU9"/>
-    <mergeCell ref="NV9:NW9"/>
-    <mergeCell ref="NX9:NY9"/>
-    <mergeCell ref="NZ9:OA9"/>
-    <mergeCell ref="OB9:OC9"/>
-    <mergeCell ref="OD9:OE9"/>
-    <mergeCell ref="OF9:OG9"/>
-    <mergeCell ref="MX9:MY9"/>
-    <mergeCell ref="MZ9:NA9"/>
-    <mergeCell ref="NB9:NC9"/>
-    <mergeCell ref="ND9:NE9"/>
-    <mergeCell ref="NF9:NG9"/>
-    <mergeCell ref="NH9:NI9"/>
-    <mergeCell ref="NJ9:NK9"/>
-    <mergeCell ref="NL9:NM9"/>
-    <mergeCell ref="NN9:NO9"/>
-    <mergeCell ref="MF9:MG9"/>
-    <mergeCell ref="MH9:MI9"/>
-    <mergeCell ref="MJ9:MK9"/>
-    <mergeCell ref="ML9:MM9"/>
-    <mergeCell ref="MN9:MO9"/>
-    <mergeCell ref="MP9:MQ9"/>
-    <mergeCell ref="MR9:MS9"/>
-    <mergeCell ref="MT9:MU9"/>
-    <mergeCell ref="MV9:MW9"/>
-    <mergeCell ref="LN9:LO9"/>
-    <mergeCell ref="LP9:LQ9"/>
-    <mergeCell ref="LR9:LS9"/>
-    <mergeCell ref="LT9:LU9"/>
-    <mergeCell ref="LV9:LW9"/>
-    <mergeCell ref="LX9:LY9"/>
-    <mergeCell ref="LZ9:MA9"/>
-    <mergeCell ref="MB9:MC9"/>
-    <mergeCell ref="MD9:ME9"/>
-    <mergeCell ref="KV9:KW9"/>
-    <mergeCell ref="KX9:KY9"/>
-    <mergeCell ref="KZ9:LA9"/>
-    <mergeCell ref="LB9:LC9"/>
-    <mergeCell ref="LD9:LE9"/>
-    <mergeCell ref="LF9:LG9"/>
-    <mergeCell ref="LH9:LI9"/>
-    <mergeCell ref="LJ9:LK9"/>
-    <mergeCell ref="LL9:LM9"/>
-    <mergeCell ref="KD9:KE9"/>
-    <mergeCell ref="KF9:KG9"/>
-    <mergeCell ref="KH9:KI9"/>
-    <mergeCell ref="KJ9:KK9"/>
-    <mergeCell ref="KL9:KM9"/>
-    <mergeCell ref="KN9:KO9"/>
-    <mergeCell ref="KP9:KQ9"/>
-    <mergeCell ref="KR9:KS9"/>
-    <mergeCell ref="KT9:KU9"/>
-    <mergeCell ref="JL9:JM9"/>
-    <mergeCell ref="JN9:JO9"/>
-    <mergeCell ref="JP9:JQ9"/>
-    <mergeCell ref="JR9:JS9"/>
-    <mergeCell ref="JT9:JU9"/>
-    <mergeCell ref="JV9:JW9"/>
-    <mergeCell ref="JX9:JY9"/>
-    <mergeCell ref="JZ9:KA9"/>
-    <mergeCell ref="KB9:KC9"/>
-    <mergeCell ref="IT9:IU9"/>
-    <mergeCell ref="IV9:IW9"/>
-    <mergeCell ref="IX9:IY9"/>
-    <mergeCell ref="IZ9:JA9"/>
-    <mergeCell ref="JB9:JC9"/>
-    <mergeCell ref="JD9:JE9"/>
-    <mergeCell ref="JF9:JG9"/>
-    <mergeCell ref="JH9:JI9"/>
-    <mergeCell ref="JJ9:JK9"/>
-    <mergeCell ref="IB9:IC9"/>
-    <mergeCell ref="ID9:IE9"/>
-    <mergeCell ref="IF9:IG9"/>
-    <mergeCell ref="IH9:II9"/>
-    <mergeCell ref="IJ9:IK9"/>
-    <mergeCell ref="IL9:IM9"/>
-    <mergeCell ref="IN9:IO9"/>
-    <mergeCell ref="IP9:IQ9"/>
-    <mergeCell ref="IR9:IS9"/>
-    <mergeCell ref="HJ9:HK9"/>
-    <mergeCell ref="HL9:HM9"/>
-    <mergeCell ref="HN9:HO9"/>
-    <mergeCell ref="HP9:HQ9"/>
-    <mergeCell ref="HR9:HS9"/>
-    <mergeCell ref="HT9:HU9"/>
-    <mergeCell ref="HV9:HW9"/>
-    <mergeCell ref="HX9:HY9"/>
-    <mergeCell ref="HZ9:IA9"/>
-    <mergeCell ref="GR9:GS9"/>
-    <mergeCell ref="GT9:GU9"/>
-    <mergeCell ref="GV9:GW9"/>
-    <mergeCell ref="GX9:GY9"/>
-    <mergeCell ref="GZ9:HA9"/>
-    <mergeCell ref="HB9:HC9"/>
-    <mergeCell ref="HD9:HE9"/>
-    <mergeCell ref="HF9:HG9"/>
-    <mergeCell ref="HH9:HI9"/>
-    <mergeCell ref="FZ9:GA9"/>
-    <mergeCell ref="GB9:GC9"/>
-    <mergeCell ref="GD9:GE9"/>
-    <mergeCell ref="GF9:GG9"/>
-    <mergeCell ref="GH9:GI9"/>
-    <mergeCell ref="GJ9:GK9"/>
-    <mergeCell ref="GL9:GM9"/>
-    <mergeCell ref="GN9:GO9"/>
-    <mergeCell ref="GP9:GQ9"/>
-    <mergeCell ref="FH9:FI9"/>
-    <mergeCell ref="FJ9:FK9"/>
-    <mergeCell ref="FL9:FM9"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FP9:FQ9"/>
-    <mergeCell ref="FR9:FS9"/>
-    <mergeCell ref="FT9:FU9"/>
-    <mergeCell ref="FV9:FW9"/>
-    <mergeCell ref="FX9:FY9"/>
-    <mergeCell ref="EP9:EQ9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="EZ9:FA9"/>
-    <mergeCell ref="FB9:FC9"/>
-    <mergeCell ref="FD9:FE9"/>
-    <mergeCell ref="FF9:FG9"/>
-    <mergeCell ref="DX9:DY9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="EH9:EI9"/>
-    <mergeCell ref="EJ9:EK9"/>
-    <mergeCell ref="EL9:EM9"/>
-    <mergeCell ref="EN9:EO9"/>
-    <mergeCell ref="DF9:DG9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DP9:DQ9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BR9:BS9"/>
-    <mergeCell ref="BT9:BU9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15380,10 +15385,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCB8985-377B-6D42-B75F-E39DBBF41ABD}">
-  <dimension ref="A1:E288"/>
+  <dimension ref="A1:F288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="H250" sqref="H250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15391,7 +15396,7 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>327</v>
       </c>
@@ -15408,7 +15413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -15425,7 +15430,7 @@
         <v>77.430000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -15442,7 +15447,7 @@
         <v>77.53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -15459,7 +15464,7 @@
         <v>77.92</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -15476,7 +15481,7 @@
         <v>77.92</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -15493,7 +15498,7 @@
         <v>78.08</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -15510,7 +15515,7 @@
         <v>78.290000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -15527,7 +15532,7 @@
         <v>78.150000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -15544,7 +15549,7 @@
         <v>78.319999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -15561,7 +15566,7 @@
         <v>78.739999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -15578,7 +15583,7 @@
         <v>78.67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -15595,7 +15600,7 @@
         <v>78.849999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -15612,7 +15617,7 @@
         <v>78.819999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -15628,8 +15633,12 @@
       <c r="E14">
         <v>78.47</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f>100*(E14/E2-1)</f>
+        <v>1.3431486503938883</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -15645,8 +15654,12 @@
       <c r="E15">
         <v>78.69</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" ref="F15:F78" si="0">100*(E15/E3-1)</f>
+        <v>1.4961950212820874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -15662,8 +15675,12 @@
       <c r="E16">
         <v>79.069999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.4758726899383845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -15679,8 +15696,12 @@
       <c r="E17">
         <v>79.48</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>2.0020533880903413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -15696,8 +15717,12 @@
       <c r="E18">
         <v>79.989999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>2.4462090163934302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -15713,8 +15738,12 @@
       <c r="E19">
         <v>80.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>2.2480521139353504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -15730,8 +15759,12 @@
       <c r="E20">
         <v>79.87</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>2.20089571337172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -15747,8 +15780,12 @@
       <c r="E21">
         <v>79.87</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.9790602655771261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -15764,8 +15801,12 @@
       <c r="E22">
         <v>80.03</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.6383032766065675</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -15781,8 +15822,12 @@
       <c r="E23">
         <v>80.08</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.7922969365704811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -15798,8 +15843,12 @@
       <c r="E24">
         <v>79.87</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.2935954343690659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -15815,8 +15864,12 @@
       <c r="E25">
         <v>79.98</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.471707688403967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -15832,8 +15885,12 @@
       <c r="E26">
         <v>80.37</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>2.4213075060532718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -15849,8 +15906,12 @@
       <c r="E27">
         <v>80.45</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>2.2366247299529851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -15866,8 +15927,12 @@
       <c r="E28">
         <v>80.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>2.1879347413684025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -15883,8 +15948,12 @@
       <c r="E29">
         <v>81.13</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>2.0759939607448263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -15900,8 +15969,12 @@
       <c r="E30">
         <v>81.239999999999995</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>1.5626953369171082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -15917,8 +15990,12 @@
       <c r="E31">
         <v>81.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>1.4366021236727144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -15934,8 +16011,12 @@
       <c r="E32">
         <v>81.13</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>1.5775635407537125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -15951,8 +16032,12 @@
       <c r="E33">
         <v>81.31</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>1.8029297608614048</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -15968,8 +16053,12 @@
       <c r="E34">
         <v>81.47</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>1.799325253030104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -15985,8 +16074,12 @@
       <c r="E35">
         <v>81.61</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.9105894105894139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -16002,8 +16095,12 @@
       <c r="E36">
         <v>81.56</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>2.1159383998998305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -16019,8 +16116,12 @@
       <c r="E37">
         <v>81.7</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2.1505376344086002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -16036,8 +16137,12 @@
       <c r="E38">
         <v>81.87</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>1.8663680477790212</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -16053,8 +16158,12 @@
       <c r="E39">
         <v>82.51</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>2.5605966438781769</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -16070,8 +16179,12 @@
       <c r="E40">
         <v>82.85</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>2.5371287128712838</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -16087,8 +16200,12 @@
       <c r="E41">
         <v>82.72</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1.9598175767287174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -16104,8 +16221,12 @@
       <c r="E42">
         <v>82.67</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1.7602166420482623</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -16121,8 +16242,12 @@
       <c r="E43">
         <v>82.83</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>2.0073891625615792</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -16138,8 +16263,12 @@
       <c r="E44">
         <v>82.73</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>1.9721434734377041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -16155,8 +16284,12 @@
       <c r="E45">
         <v>82.94</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>2.0046734718976778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -16172,8 +16305,12 @@
       <c r="E46">
         <v>83.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>2.2462256045169937</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -16189,8 +16326,12 @@
       <c r="E47">
         <v>83.48</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>2.291385859576045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -16206,8 +16347,12 @@
       <c r="E48">
         <v>83.56</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>2.4521824423737071</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -16223,8 +16368,12 @@
       <c r="E49">
         <v>83.66</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>2.3990208078335407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -16240,8 +16389,12 @@
       <c r="E50">
         <v>83.68</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>2.2108220349334351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -16257,8 +16410,12 @@
       <c r="E51">
         <v>84.06</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>1.8785601745243019</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -16274,8 +16431,12 @@
       <c r="E52">
         <v>84.44</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>1.9191309595654849</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -16291,8 +16452,12 @@
       <c r="E53">
         <v>84.67</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>2.3573500967118077</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -16308,8 +16473,12 @@
       <c r="E54">
         <v>85.01</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>2.8305310269747253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -16325,8 +16494,12 @@
       <c r="E55">
         <v>85.04</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>2.668115417119421</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -16342,8 +16515,12 @@
       <c r="E56">
         <v>84.87</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>2.5867279100689089</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -16359,8 +16536,12 @@
       <c r="E57">
         <v>85.08</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>2.580178442247405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -16376,8 +16557,12 @@
       <c r="E58">
         <v>85.16</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>2.2328931572628941</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -16393,8 +16578,12 @@
       <c r="E59">
         <v>85.39</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>2.2879731672256876</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -16410,8 +16599,12 @@
       <c r="E60">
         <v>85.43</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>2.2379128769746348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -16427,8 +16620,12 @@
       <c r="E61">
         <v>85.54</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>2.2471910112359605</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -16444,8 +16641,12 @@
       <c r="E62">
         <v>85.06</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>1.6491395793498898</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -16461,8 +16662,12 @@
       <c r="E63">
         <v>85.63</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1.8677135379490784</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -16478,8 +16683,12 @@
       <c r="E64">
         <v>86.22</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>2.1080056845097062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -16495,8 +16704,12 @@
       <c r="E65">
         <v>86.37</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>2.0077949687020258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -16512,8 +16725,12 @@
       <c r="E66">
         <v>86.43</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>1.6703917186213335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -16529,8 +16746,12 @@
       <c r="E67">
         <v>86.54</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>1.7638758231420582</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -16546,8 +16767,12 @@
       <c r="E68">
         <v>86.39</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>1.7909744314834386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -16563,8 +16788,12 @@
       <c r="E69">
         <v>86.75</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69">
+        <f t="shared" si="0"/>
+        <v>1.9628584861306919</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -16580,8 +16809,12 @@
       <c r="E70">
         <v>87.13</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70">
+        <f t="shared" si="0"/>
+        <v>2.3132926256458353</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -16597,8 +16830,12 @@
       <c r="E71">
         <v>87.12</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71">
+        <f t="shared" si="0"/>
+        <v>2.0259983604637544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -16614,8 +16851,12 @@
       <c r="E72">
         <v>86.93</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72">
+        <f t="shared" si="0"/>
+        <v>1.7558234812126816</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -16631,8 +16872,12 @@
       <c r="E73">
         <v>87.04</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73">
+        <f t="shared" si="0"/>
+        <v>1.753565583352823</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -16648,8 +16893,12 @@
       <c r="E74">
         <v>86.97</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74">
+        <f t="shared" si="0"/>
+        <v>2.2454737832118488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -16665,8 +16914,12 @@
       <c r="E75">
         <v>87.31</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75">
+        <f t="shared" si="0"/>
+        <v>1.9619292304099201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -16682,8 +16935,12 @@
       <c r="E76">
         <v>87.69</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76">
+        <f t="shared" si="0"/>
+        <v>1.7049408489909545</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -16699,8 +16956,12 @@
       <c r="E77">
         <v>88.08</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77">
+        <f t="shared" si="0"/>
+        <v>1.9798541160124916</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -16716,8 +16977,12 @@
       <c r="E78">
         <v>88.46</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78">
+        <f t="shared" si="0"/>
+        <v>2.3487215087353741</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>105</v>
       </c>
@@ -16733,8 +16998,12 @@
       <c r="E79">
         <v>88.46</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79">
+        <f t="shared" ref="F79:F142" si="1">100*(E79/E67-1)</f>
+        <v>2.2186272244048899</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -16750,8 +17019,12 @@
       <c r="E80">
         <v>88.29</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>2.1993286259983869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -16767,8 +17040,12 @@
       <c r="E81">
         <v>88.58</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>2.109510086455324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -16784,8 +17061,12 @@
       <c r="E82">
         <v>88.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>1.4575921037530248</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -16801,8 +17082,12 @@
       <c r="E83">
         <v>88.19</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>1.2281910009182662</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -16818,8 +17103,12 @@
       <c r="E84">
         <v>88.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>1.5759806741055815</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>111</v>
       </c>
@@ -16835,8 +17124,12 @@
       <c r="E85">
         <v>88.51</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>1.6888786764705843</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -16852,8 +17145,12 @@
       <c r="E86">
         <v>88.17</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>1.3797861331493744</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -16869,8 +17166,12 @@
       <c r="E87">
         <v>88.36</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>1.2026113847211084</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -16886,8 +17187,12 @@
       <c r="E88">
         <v>88.77</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>1.2316113581936294</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -16903,8 +17208,12 @@
       <c r="E89">
         <v>89.25</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>1.3283378746594021</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -16920,8 +17229,12 @@
       <c r="E90">
         <v>89.48</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>1.1530635315396998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -16937,8 +17250,12 @@
       <c r="E91">
         <v>89.61</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>1.3000226090888578</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -16954,8 +17271,12 @@
       <c r="E92">
         <v>89.32</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>1.1666100351115594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -16971,8 +17292,12 @@
       <c r="E93">
         <v>89.7</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>1.2643937683449957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -16988,8 +17313,12 @@
       <c r="E94">
         <v>89.83</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>1.6176470588235237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -17005,8 +17334,12 @@
       <c r="E95">
         <v>90.08</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>2.1431001247306902</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -17022,8 +17355,12 @@
       <c r="E96">
         <v>90.62</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>2.6274065685164327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -17039,8 +17376,12 @@
       <c r="E97">
         <v>90.99</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>2.8019432832448121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -17056,8 +17397,12 @@
       <c r="E98">
         <v>90.98</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>3.1870250652149323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -17073,8 +17418,12 @@
       <c r="E99">
         <v>91.18</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>3.1914893617021267</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -17090,8 +17439,12 @@
       <c r="E100">
         <v>91.91</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>3.5372310465247248</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -17107,8 +17460,12 @@
       <c r="E101">
         <v>92.26</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>3.37254901960784</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -17124,8 +17481,12 @@
       <c r="E102">
         <v>92.79</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>3.6991506481895309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -17141,8 +17502,12 @@
       <c r="E103">
         <v>93.18</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>3.9839303649146451</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>130</v>
       </c>
@@ -17158,8 +17523,12 @@
       <c r="E104">
         <v>92.93</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>4.0416480071652661</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>131</v>
       </c>
@@ -17175,8 +17544,12 @@
       <c r="E105">
         <v>92.87</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>3.5340022296544094</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>132</v>
       </c>
@@ -17192,8 +17565,12 @@
       <c r="E106">
         <v>92.84</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>3.3507736836246194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>133</v>
       </c>
@@ -17209,8 +17586,12 @@
       <c r="E107">
         <v>92.79</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>3.0084369449378423</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>134</v>
       </c>
@@ -17226,8 +17607,12 @@
       <c r="E108">
         <v>92.32</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>1.8759655705142153</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>135</v>
       </c>
@@ -17243,8 +17628,12 @@
       <c r="E109">
         <v>92.07</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>1.1869436201780381</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>136</v>
       </c>
@@ -17260,8 +17649,12 @@
       <c r="E110">
         <v>91.67</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>0.75840844141570329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>137</v>
       </c>
@@ -17277,8 +17670,12 @@
       <c r="E111">
         <v>92.06</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>0.96512393068655111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>138</v>
       </c>
@@ -17294,8 +17691,12 @@
       <c r="E112">
         <v>92.24</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>0.35904689370036547</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>139</v>
       </c>
@@ -17311,8 +17712,12 @@
       <c r="E113">
         <v>92.39</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>0.14090613483632719</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>140</v>
       </c>
@@ -17328,8 +17733,12 @@
       <c r="E114">
         <v>92.52</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>-0.29097963142581396</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>141</v>
       </c>
@@ -17345,8 +17754,12 @@
       <c r="E115">
         <v>92.65</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>-0.56879158617729741</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>142</v>
       </c>
@@ -17362,8 +17775,12 @@
       <c r="E116">
         <v>92.19</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>-0.79629828903476918</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>143</v>
       </c>
@@ -17379,8 +17796,12 @@
       <c r="E117">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>-0.18305157747389167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>144</v>
       </c>
@@ -17396,8 +17817,12 @@
       <c r="E118">
         <v>92.49</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>-0.37699267557088634</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>145</v>
       </c>
@@ -17413,8 +17838,12 @@
       <c r="E119">
         <v>92.59</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>-0.21554046772281898</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>146</v>
       </c>
@@ -17430,8 +17859,12 @@
       <c r="E120">
         <v>92.74</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>0.45493934142115666</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>147</v>
       </c>
@@ -17447,8 +17880,12 @@
       <c r="E121">
         <v>93.01</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>1.0209623112849009</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>148</v>
       </c>
@@ -17464,8 +17901,12 @@
       <c r="E122">
         <v>92.79</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122">
+        <f t="shared" si="1"/>
+        <v>1.2217737536816875</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>149</v>
       </c>
@@ -17481,8 +17922,12 @@
       <c r="E123">
         <v>93.36</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123">
+        <f t="shared" si="1"/>
+        <v>1.4121225287855754</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>150</v>
       </c>
@@ -17498,8 +17943,12 @@
       <c r="E124">
         <v>93.85</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124">
+        <f t="shared" si="1"/>
+        <v>1.7454466608846531</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -17515,8 +17964,12 @@
       <c r="E125">
         <v>94.14</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125">
+        <f t="shared" si="1"/>
+        <v>1.8941443879207709</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -17532,8 +17985,12 @@
       <c r="E126">
         <v>94.27</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126">
+        <f t="shared" si="1"/>
+        <v>1.8914829226113206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>153</v>
       </c>
@@ -17549,8 +18006,12 @@
       <c r="E127">
         <v>94.26</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127">
+        <f t="shared" si="1"/>
+        <v>1.7377226119805744</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>154</v>
       </c>
@@ -17566,8 +18027,12 @@
       <c r="E128">
         <v>93.95</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128">
+        <f t="shared" si="1"/>
+        <v>1.9091007701486085</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>155</v>
       </c>
@@ -17583,8 +18048,12 @@
       <c r="E129">
         <v>94.19</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129">
+        <f t="shared" si="1"/>
+        <v>1.6073354908306303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>156</v>
       </c>
@@ -17600,8 +18069,12 @@
       <c r="E130">
         <v>94.15</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130">
+        <f t="shared" si="1"/>
+        <v>1.7947886257974055</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>157</v>
       </c>
@@ -17617,8 +18090,12 @@
       <c r="E131">
         <v>94.29</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131">
+        <f t="shared" si="1"/>
+        <v>1.8360514094394764</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>158</v>
       </c>
@@ -17634,8 +18111,12 @@
       <c r="E132">
         <v>94.41</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132">
+        <f t="shared" si="1"/>
+        <v>1.8007332326935632</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>159</v>
       </c>
@@ -17651,8 +18132,12 @@
       <c r="E133">
         <v>94.88</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133">
+        <f t="shared" si="1"/>
+        <v>2.0105365014514431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>160</v>
       </c>
@@ -17668,8 +18153,12 @@
       <c r="E134">
         <v>94.6</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134">
+        <f t="shared" si="1"/>
+        <v>1.9506412328914591</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>161</v>
       </c>
@@ -17685,8 +18174,12 @@
       <c r="E135">
         <v>95.07</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135">
+        <f t="shared" si="1"/>
+        <v>1.8316195372750643</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>162</v>
       </c>
@@ -17702,8 +18195,12 @@
       <c r="E136">
         <v>95.9</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136">
+        <f t="shared" si="1"/>
+        <v>2.1843367075119913</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>163</v>
       </c>
@@ -17719,8 +18216,12 @@
       <c r="E137">
         <v>96.24</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137">
+        <f t="shared" si="1"/>
+        <v>2.2307202039515639</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>164</v>
       </c>
@@ -17736,8 +18237,12 @@
       <c r="E138">
         <v>96.31</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138">
+        <f t="shared" si="1"/>
+        <v>2.1639970298080069</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>165</v>
       </c>
@@ -17753,8 +18258,12 @@
       <c r="E139">
         <v>96.39</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139">
+        <f t="shared" si="1"/>
+        <v>2.2597071928707857</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>166</v>
       </c>
@@ -17770,8 +18279,12 @@
       <c r="E140">
         <v>95.91</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140">
+        <f t="shared" si="1"/>
+        <v>2.0862160723789103</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -17787,8 +18300,12 @@
       <c r="E141">
         <v>96.46</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141">
+        <f t="shared" si="1"/>
+        <v>2.4100222953604478</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>168</v>
       </c>
@@ -17804,8 +18321,12 @@
       <c r="E142">
         <v>96.43</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142">
+        <f t="shared" si="1"/>
+        <v>2.4216675517790831</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>169</v>
       </c>
@@ -17821,8 +18342,12 @@
       <c r="E143">
         <v>96.69</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143">
+        <f t="shared" ref="F143:F206" si="2">100*(E143/E131-1)</f>
+        <v>2.5453388482341577</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>170</v>
       </c>
@@ -17838,8 +18363,12 @@
       <c r="E144">
         <v>96.99</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144">
+        <f t="shared" si="2"/>
+        <v>2.7327613600254264</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>171</v>
       </c>
@@ -17855,8 +18384,12 @@
       <c r="E145">
         <v>97.41</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145">
+        <f t="shared" si="2"/>
+        <v>2.6665261382799343</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>172</v>
       </c>
@@ -17872,8 +18405,12 @@
       <c r="E146">
         <v>97.03</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146">
+        <f t="shared" si="2"/>
+        <v>2.568710359408044</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>173</v>
       </c>
@@ -17889,8 +18426,12 @@
       <c r="E147">
         <v>97.49</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147">
+        <f t="shared" si="2"/>
+        <v>2.5454927947827999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>174</v>
       </c>
@@ -17906,8 +18447,12 @@
       <c r="E148">
         <v>98.39</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148">
+        <f t="shared" si="2"/>
+        <v>2.5964546402502453</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>175</v>
       </c>
@@ -17923,8 +18468,12 @@
       <c r="E149">
         <v>98.56</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149">
+        <f t="shared" si="2"/>
+        <v>2.4106400665004246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>176</v>
       </c>
@@ -17940,8 +18489,12 @@
       <c r="E150">
         <v>98.51</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150">
+        <f t="shared" si="2"/>
+        <v>2.2842903125324554</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -17957,8 +18510,12 @@
       <c r="E151">
         <v>98.56</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151">
+        <f t="shared" si="2"/>
+        <v>2.2512708787218561</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>178</v>
       </c>
@@ -17974,8 +18531,12 @@
       <c r="E152">
         <v>98.05</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152">
+        <f t="shared" si="2"/>
+        <v>2.2312584714836881</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>179</v>
       </c>
@@ -17991,8 +18552,12 @@
       <c r="E153">
         <v>98.76</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153">
+        <f t="shared" si="2"/>
+        <v>2.3844080447854132</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -18008,8 +18573,12 @@
       <c r="E154">
         <v>98.51</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154">
+        <f t="shared" si="2"/>
+        <v>2.1570050814061936</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -18025,8 +18594,12 @@
       <c r="E155">
         <v>98.71</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155">
+        <f t="shared" si="2"/>
+        <v>2.0891508946116355</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>182</v>
       </c>
@@ -18042,8 +18615,12 @@
       <c r="E156">
         <v>98.54</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156">
+        <f t="shared" si="2"/>
+        <v>1.5981028972058997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>183</v>
       </c>
@@ -18059,8 +18636,12 @@
       <c r="E157">
         <v>98.9</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157">
+        <f t="shared" si="2"/>
+        <v>1.5296170824350863</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>184</v>
       </c>
@@ -18076,8 +18657,12 @@
       <c r="E158">
         <v>98.34</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158">
+        <f t="shared" si="2"/>
+        <v>1.3500979078635567</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>185</v>
       </c>
@@ -18093,8 +18678,12 @@
       <c r="E159">
         <v>98.65</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159">
+        <f t="shared" si="2"/>
+        <v>1.1898656272438357</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>186</v>
       </c>
@@ -18110,8 +18699,12 @@
       <c r="E160">
         <v>99.46</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160">
+        <f t="shared" si="2"/>
+        <v>1.0875088931801891</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>187</v>
       </c>
@@ -18127,8 +18720,12 @@
       <c r="E161">
         <v>99.35</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161">
+        <f t="shared" si="2"/>
+        <v>0.8015422077922052</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>188</v>
       </c>
@@ -18144,8 +18741,12 @@
       <c r="E162">
         <v>99.39</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162">
+        <f t="shared" si="2"/>
+        <v>0.89331032382498066</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>189</v>
       </c>
@@ -18161,8 +18762,12 @@
       <c r="E163">
         <v>99.57</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163">
+        <f t="shared" si="2"/>
+        <v>1.0247564935064846</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>190</v>
       </c>
@@ -18178,8 +18783,12 @@
       <c r="E164">
         <v>99.22</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164">
+        <f t="shared" si="2"/>
+        <v>1.1932687404385467</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>191</v>
       </c>
@@ -18195,8 +18804,12 @@
       <c r="E165">
         <v>99.72</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165">
+        <f t="shared" si="2"/>
+        <v>0.97205346294044759</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>192</v>
       </c>
@@ -18212,8 +18825,12 @@
       <c r="E166">
         <v>99.52</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166">
+        <f t="shared" si="2"/>
+        <v>1.0252766216627629</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>193</v>
       </c>
@@ -18229,8 +18846,12 @@
       <c r="E167">
         <v>99.39</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167">
+        <f t="shared" si="2"/>
+        <v>0.68888663762536329</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>194</v>
       </c>
@@ -18246,8 +18867,12 @@
       <c r="E168">
         <v>99.35</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168">
+        <f t="shared" si="2"/>
+        <v>0.82200121777957769</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>195</v>
       </c>
@@ -18263,8 +18888,12 @@
       <c r="E169">
         <v>99.73</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169">
+        <f t="shared" si="2"/>
+        <v>0.83923154701719405</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>196</v>
       </c>
@@ -18280,8 +18909,12 @@
       <c r="E170">
         <v>99.09</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170">
+        <f t="shared" si="2"/>
+        <v>0.76266015863331038</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -18297,8 +18930,12 @@
       <c r="E171">
         <v>99.7</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171">
+        <f t="shared" si="2"/>
+        <v>1.0643689812468216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>198</v>
       </c>
@@ -18314,8 +18951,12 @@
       <c r="E172">
         <v>100.21</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172">
+        <f t="shared" si="2"/>
+        <v>0.75407198873920223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>199</v>
       </c>
@@ -18331,8 +18972,12 @@
       <c r="E173">
         <v>100.18</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173">
+        <f t="shared" si="2"/>
+        <v>0.83543029693005089</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -18348,8 +18993,12 @@
       <c r="E174">
         <v>100.21</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174">
+        <f t="shared" si="2"/>
+        <v>0.8250326994667434</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>201</v>
       </c>
@@ -18365,8 +19014,12 @@
       <c r="E175">
         <v>100.16</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175">
+        <f t="shared" si="2"/>
+        <v>0.59254795621170864</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>202</v>
       </c>
@@ -18382,8 +19035,12 @@
       <c r="E176">
         <v>99.78</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176">
+        <f t="shared" si="2"/>
+        <v>0.56440233823826791</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>203</v>
       </c>
@@ -18399,8 +19056,12 @@
       <c r="E177">
         <v>100.26</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177">
+        <f t="shared" si="2"/>
+        <v>0.54151624548737232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>204</v>
       </c>
@@ -18416,8 +19077,12 @@
       <c r="E178">
         <v>99.89</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178">
+        <f t="shared" si="2"/>
+        <v>0.37178456591639986</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>205</v>
       </c>
@@ -18433,8 +19098,12 @@
       <c r="E179">
         <v>99.92</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179">
+        <f t="shared" si="2"/>
+        <v>0.53325284233827208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>206</v>
       </c>
@@ -18450,8 +19119,12 @@
       <c r="E180">
         <v>99.75</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180">
+        <f t="shared" si="2"/>
+        <v>0.40261701056869548</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>207</v>
       </c>
@@ -18467,8 +19140,12 @@
       <c r="E181">
         <v>99.82</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181">
+        <f t="shared" si="2"/>
+        <v>9.0243657876265537E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>208</v>
       </c>
@@ -18484,8 +19161,12 @@
       <c r="E182">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182">
+        <f t="shared" si="2"/>
+        <v>-0.39358159249167635</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -18501,8 +19182,12 @@
       <c r="E183">
         <v>99.42</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183">
+        <f t="shared" si="2"/>
+        <v>-0.28084252758274753</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>210</v>
       </c>
@@ -18518,8 +19203,12 @@
       <c r="E184">
         <v>100.17</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184">
+        <f t="shared" si="2"/>
+        <v>-3.9916176030330153E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>211</v>
       </c>
@@ -18535,8 +19224,12 @@
       <c r="E185">
         <v>100.3</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185">
+        <f t="shared" si="2"/>
+        <v>0.11978438810140712</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>212</v>
       </c>
@@ -18552,8 +19245,12 @@
       <c r="E186">
         <v>100.56</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186">
+        <f t="shared" si="2"/>
+        <v>0.34926654026545823</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>213</v>
       </c>
@@ -18569,8 +19266,12 @@
       <c r="E187">
         <v>100.49</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F187">
+        <f t="shared" si="2"/>
+        <v>0.32947284345048455</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>214</v>
       </c>
@@ -18586,8 +19287,12 @@
       <c r="E188">
         <v>100</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188">
+        <f t="shared" si="2"/>
+        <v>0.22048506714771321</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -18603,8 +19308,12 @@
       <c r="E189">
         <v>100.36</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189">
+        <f t="shared" si="2"/>
+        <v>9.974067424696198E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>216</v>
       </c>
@@ -18620,8 +19329,12 @@
       <c r="E190">
         <v>99.99</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190">
+        <f t="shared" si="2"/>
+        <v>0.10011012113324558</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>217</v>
       </c>
@@ -18637,8 +19350,12 @@
       <c r="E191">
         <v>100.07</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191">
+        <f t="shared" si="2"/>
+        <v>0.15012009607684451</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>218</v>
       </c>
@@ -18654,8 +19371,12 @@
       <c r="E192">
         <v>99.86</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192">
+        <f t="shared" si="2"/>
+        <v>0.11027568922306052</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>219</v>
       </c>
@@ -18671,8 +19392,12 @@
       <c r="E193">
         <v>100.09</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193">
+        <f t="shared" si="2"/>
+        <v>0.27048687637749591</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>220</v>
       </c>
@@ -18688,8 +19413,12 @@
       <c r="E194">
         <v>99.02</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194">
+        <f t="shared" si="2"/>
+        <v>0.32421479229989281</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>221</v>
       </c>
@@ -18705,8 +19434,12 @@
       <c r="E195">
         <v>99.31</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195">
+        <f t="shared" si="2"/>
+        <v>-0.11064172198752553</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>222</v>
       </c>
@@ -18722,8 +19455,12 @@
       <c r="E196">
         <v>100.09</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196">
+        <f t="shared" si="2"/>
+        <v>-7.9864230807624725E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>223</v>
       </c>
@@ -18739,8 +19476,12 @@
       <c r="E197">
         <v>100.18</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197">
+        <f t="shared" si="2"/>
+        <v>-0.11964107676968316</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>224</v>
       </c>
@@ -18756,8 +19497,12 @@
       <c r="E198">
         <v>100.65</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198">
+        <f t="shared" si="2"/>
+        <v>8.9498806682586363E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>225</v>
       </c>
@@ -18773,8 +19518,12 @@
       <c r="E199">
         <v>100.8</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199">
+        <f t="shared" si="2"/>
+        <v>0.30848840680663958</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>226</v>
       </c>
@@ -18790,8 +19539,12 @@
       <c r="E200">
         <v>100.39</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200">
+        <f t="shared" si="2"/>
+        <v>0.39000000000000146</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>227</v>
       </c>
@@ -18807,8 +19560,12 @@
       <c r="E201">
         <v>100.74</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201">
+        <f t="shared" si="2"/>
+        <v>0.37863690713431097</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>228</v>
       </c>
@@ -18824,8 +19581,12 @@
       <c r="E202">
         <v>100.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202">
+        <f t="shared" si="2"/>
+        <v>0.51005100510050916</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>229</v>
       </c>
@@ -18841,8 +19602,12 @@
       <c r="E203">
         <v>100.54</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203">
+        <f t="shared" si="2"/>
+        <v>0.46967123013892387</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -18858,8 +19623,12 @@
       <c r="E204">
         <v>100.55</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204">
+        <f t="shared" si="2"/>
+        <v>0.69096735429601264</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>231</v>
       </c>
@@ -18875,8 +19644,12 @@
       <c r="E205">
         <v>100.9</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205">
+        <f t="shared" si="2"/>
+        <v>0.80927165551003544</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>232</v>
       </c>
@@ -18892,8 +19665,12 @@
       <c r="E206">
         <v>100.57</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206">
+        <f t="shared" si="2"/>
+        <v>1.565340335285792</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>233</v>
       </c>
@@ -18909,8 +19686,12 @@
       <c r="E207">
         <v>100.73</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207">
+        <f t="shared" ref="F207:F270" si="3">100*(E207/E195-1)</f>
+        <v>1.4298660759238802</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>234</v>
       </c>
@@ -18926,8 +19707,12 @@
       <c r="E208">
         <v>101.47</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208">
+        <f t="shared" si="3"/>
+        <v>1.3787591167948809</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>235</v>
       </c>
@@ -18943,8 +19728,12 @@
       <c r="E209">
         <v>101.57</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209">
+        <f t="shared" si="3"/>
+        <v>1.387502495508075</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>236</v>
       </c>
@@ -18960,8 +19749,12 @@
       <c r="E210">
         <v>101.59</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210">
+        <f t="shared" si="3"/>
+        <v>0.93392945851962228</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>237</v>
       </c>
@@ -18977,8 +19770,12 @@
       <c r="E211">
         <v>101.58</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211">
+        <f t="shared" si="3"/>
+        <v>0.77380952380952106</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>238</v>
       </c>
@@ -18994,8 +19791,12 @@
       <c r="E212">
         <v>101.17</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212">
+        <f t="shared" si="3"/>
+        <v>0.77696981771093743</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>239</v>
       </c>
@@ -19011,8 +19812,12 @@
       <c r="E213">
         <v>101.74</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213">
+        <f t="shared" si="3"/>
+        <v>0.99265435775262034</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>240</v>
       </c>
@@ -19028,8 +19833,12 @@
       <c r="E214">
         <v>101.58</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214">
+        <f t="shared" si="3"/>
+        <v>1.0746268656716351</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>241</v>
       </c>
@@ -19045,8 +19854,12 @@
       <c r="E215">
         <v>101.7</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215">
+        <f t="shared" si="3"/>
+        <v>1.1537696439228196</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>242</v>
       </c>
@@ -19062,8 +19875,12 @@
       <c r="E216">
         <v>101.8</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216">
+        <f t="shared" si="3"/>
+        <v>1.2431626056688128</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>243</v>
       </c>
@@ -19079,8 +19896,12 @@
       <c r="E217">
         <v>102.16</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217">
+        <f t="shared" si="3"/>
+        <v>1.2487611496531104</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>244</v>
       </c>
@@ -19096,8 +19917,12 @@
       <c r="E218">
         <v>102.06</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218">
+        <f t="shared" si="3"/>
+        <v>1.4815551357263645</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>245</v>
       </c>
@@ -19113,8 +19938,12 @@
       <c r="E219">
         <v>102.05</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219">
+        <f t="shared" si="3"/>
+        <v>1.3104338330189647</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>246</v>
       </c>
@@ -19130,8 +19959,12 @@
       <c r="E220">
         <v>103.22</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220">
+        <f t="shared" si="3"/>
+        <v>1.7246476791169751</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>247</v>
       </c>
@@ -19147,8 +19980,12 @@
       <c r="E221">
         <v>103.43</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221">
+        <f t="shared" si="3"/>
+        <v>1.831249384660838</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>248</v>
       </c>
@@ -19164,8 +20001,12 @@
       <c r="E222">
         <v>103.92</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222">
+        <f t="shared" si="3"/>
+        <v>2.2935328280342615</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>249</v>
       </c>
@@ -19181,8 +20022,12 @@
       <c r="E223">
         <v>103.93</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223">
+        <f t="shared" si="3"/>
+        <v>2.3134475290411682</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>250</v>
       </c>
@@ -19198,8 +20043,12 @@
       <c r="E224">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224">
+        <f t="shared" si="3"/>
+        <v>2.5995848571710889</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>251</v>
       </c>
@@ -19215,8 +20064,12 @@
       <c r="E225">
         <v>104.35</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225">
+        <f t="shared" si="3"/>
+        <v>2.5653626892077952</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>252</v>
       </c>
@@ -19232,8 +20085,12 @@
       <c r="E226">
         <v>104.12</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226">
+        <f t="shared" si="3"/>
+        <v>2.5004922228785365</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>253</v>
       </c>
@@ -19249,8 +20106,12 @@
       <c r="E227">
         <v>104.24</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227">
+        <f t="shared" si="3"/>
+        <v>2.4975417895771734</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>254</v>
       </c>
@@ -19266,8 +20127,12 @@
       <c r="E228">
         <v>104</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228">
+        <f t="shared" si="3"/>
+        <v>2.16110019646365</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>255</v>
       </c>
@@ -19283,8 +20148,12 @@
       <c r="E229">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229">
+        <f t="shared" si="3"/>
+        <v>1.8989819890367965</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>256</v>
       </c>
@@ -19300,8 +20169,12 @@
       <c r="E230">
         <v>103.52</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230">
+        <f t="shared" si="3"/>
+        <v>1.4305310601606891</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>257</v>
       </c>
@@ -19317,8 +20190,12 @@
       <c r="E231">
         <v>103.64</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231">
+        <f t="shared" si="3"/>
+        <v>1.5580597746202907</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>258</v>
       </c>
@@ -19334,8 +20211,12 @@
       <c r="E232">
         <v>104.55</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232">
+        <f t="shared" si="3"/>
+        <v>1.288509978686303</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>259</v>
       </c>
@@ -19351,8 +20232,12 @@
       <c r="E233">
         <v>104.93</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233">
+        <f t="shared" si="3"/>
+        <v>1.4502562119307782</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>260</v>
       </c>
@@ -19368,8 +20253,12 @@
       <c r="E234">
         <v>105.06</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234">
+        <f t="shared" si="3"/>
+        <v>1.0969976905311762</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>261</v>
       </c>
@@ -19385,8 +20274,12 @@
       <c r="E235">
         <v>105.35</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235">
+        <f t="shared" si="3"/>
+        <v>1.3663042432406236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -19402,8 +20295,12 @@
       <c r="E236">
         <v>105.11</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236">
+        <f t="shared" si="3"/>
+        <v>1.2620423892100163</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>263</v>
       </c>
@@ -19419,8 +20316,12 @@
       <c r="E237">
         <v>105.67</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F237">
+        <f t="shared" si="3"/>
+        <v>1.2649736463823835</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>264</v>
       </c>
@@ -19436,8 +20337,12 @@
       <c r="E238">
         <v>105.28</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238">
+        <f t="shared" si="3"/>
+        <v>1.1140991164041436</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>265</v>
       </c>
@@ -19453,8 +20358,12 @@
       <c r="E239">
         <v>105.2</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239">
+        <f t="shared" si="3"/>
+        <v>0.92095165003838186</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>266</v>
       </c>
@@ -19470,8 +20379,12 @@
       <c r="E240">
         <v>105.27</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240">
+        <f t="shared" si="3"/>
+        <v>1.221153846153844</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>267</v>
       </c>
@@ -19487,8 +20400,12 @@
       <c r="E241">
         <v>105.78</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241">
+        <f t="shared" si="3"/>
+        <v>1.6138328530259427</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>268</v>
       </c>
@@ -19504,8 +20421,12 @@
       <c r="E242">
         <v>105.24</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242">
+        <f t="shared" si="3"/>
+        <v>1.6615146831530092</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>269</v>
       </c>
@@ -19521,8 +20442,12 @@
       <c r="E243">
         <v>105.27</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243">
+        <f t="shared" si="3"/>
+        <v>1.5727518332689927</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>270</v>
       </c>
@@ -19538,8 +20463,12 @@
       <c r="E244">
         <v>105.34</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244">
+        <f t="shared" si="3"/>
+        <v>0.75561932089909245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>271</v>
       </c>
@@ -19555,8 +20484,12 @@
       <c r="E245">
         <v>105.32</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245">
+        <f t="shared" si="3"/>
+        <v>0.37167635566566215</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>272</v>
       </c>
@@ -19572,8 +20505,12 @@
       <c r="E246">
         <v>105.49</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246">
+        <f t="shared" si="3"/>
+        <v>0.40928992956406063</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>273</v>
       </c>
@@ -19589,8 +20526,12 @@
       <c r="E247">
         <v>105.58</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247">
+        <f t="shared" si="3"/>
+        <v>0.21831988609397612</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>274</v>
       </c>
@@ -19606,8 +20547,12 @@
       <c r="E248">
         <v>106.01</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F248">
+        <f t="shared" si="3"/>
+        <v>0.85624583769385865</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>275</v>
       </c>
@@ -19623,8 +20568,12 @@
       <c r="E249">
         <v>105.89</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F249">
+        <f t="shared" si="3"/>
+        <v>0.20819532506861638</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>276</v>
       </c>
@@ -19640,8 +20589,12 @@
       <c r="E250">
         <v>105.3</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F250">
+        <f t="shared" si="3"/>
+        <v>1.8996960486328263E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>277</v>
       </c>
@@ -19657,8 +20610,12 @@
       <c r="E251">
         <v>105.27</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F251">
+        <f t="shared" si="3"/>
+        <v>6.6539923954356262E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>278</v>
       </c>
@@ -19674,8 +20631,12 @@
       <c r="E252">
         <v>105.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252">
+        <f t="shared" si="3"/>
+        <v>0.2184857984230959</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>279</v>
       </c>
@@ -19691,8 +20652,12 @@
       <c r="E253">
         <v>105.75</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F253">
+        <f t="shared" si="3"/>
+        <v>-2.8360748723765816E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>280</v>
       </c>
@@ -19708,8 +20673,12 @@
       <c r="E254">
         <v>106.03</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F254">
+        <f t="shared" si="3"/>
+        <v>0.75066514633219672</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>281</v>
       </c>
@@ -19725,8 +20694,12 @@
       <c r="E255">
         <v>106.07</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255">
+        <f t="shared" si="3"/>
+        <v>0.75995060321079055</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>282</v>
       </c>
@@ -19742,8 +20715,12 @@
       <c r="E256">
         <v>106.8</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256">
+        <f t="shared" si="3"/>
+        <v>1.3859882285931269</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>283</v>
       </c>
@@ -19759,8 +20736,12 @@
       <c r="E257">
         <v>107.02</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257">
+        <f t="shared" si="3"/>
+        <v>1.6141283706798459</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>284</v>
       </c>
@@ -19776,8 +20757,12 @@
       <c r="E258">
         <v>107.38</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258">
+        <f t="shared" si="3"/>
+        <v>1.791639017916391</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>285</v>
       </c>
@@ -19793,8 +20778,12 @@
       <c r="E259">
         <v>107.57</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259">
+        <f t="shared" si="3"/>
+        <v>1.8848266717181206</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>286</v>
       </c>
@@ -19810,8 +20799,12 @@
       <c r="E260">
         <v>107.64</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260">
+        <f t="shared" si="3"/>
+        <v>1.5375907933213862</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>287</v>
       </c>
@@ -19827,8 +20820,12 @@
       <c r="E261">
         <v>108.38</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261">
+        <f t="shared" si="3"/>
+        <v>2.3514968363395949</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>288</v>
       </c>
@@ -19844,8 +20841,12 @@
       <c r="E262">
         <v>108.16</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262">
+        <f t="shared" si="3"/>
+        <v>2.716049382716057</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>289</v>
       </c>
@@ -19861,8 +20862,12 @@
       <c r="E263">
         <v>108.64</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F263">
+        <f t="shared" si="3"/>
+        <v>3.2012919160254727</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>290</v>
       </c>
@@ -19878,8 +20883,12 @@
       <c r="E264">
         <v>109.09</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264">
+        <f t="shared" si="3"/>
+        <v>3.4028436018957331</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>291</v>
       </c>
@@ -19895,8 +20904,12 @@
       <c r="E265">
         <v>109.34</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F265">
+        <f t="shared" si="3"/>
+        <v>3.3947990543735207</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>292</v>
       </c>
@@ -19912,8 +20925,12 @@
       <c r="E266">
         <v>109.51</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F266">
+        <f t="shared" si="3"/>
+        <v>3.2820899745355181</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -19929,8 +20946,12 @@
       <c r="E267">
         <v>110.49</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F267">
+        <f t="shared" si="3"/>
+        <v>4.1670594890166779</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>294</v>
       </c>
@@ -19946,8 +20967,12 @@
       <c r="E268">
         <v>112.26</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268">
+        <f t="shared" si="3"/>
+        <v>5.1123595505617958</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>295</v>
       </c>
@@ -19963,8 +20988,12 @@
       <c r="E269">
         <v>112.78</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F269">
+        <f t="shared" si="3"/>
+        <v>5.3821715567183848</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>296</v>
       </c>
@@ -19980,8 +21009,12 @@
       <c r="E270">
         <v>113.63</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270">
+        <f t="shared" si="3"/>
+        <v>5.8204507357049629</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>297</v>
       </c>
@@ -19997,8 +21030,12 @@
       <c r="E271">
         <v>114.6</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271">
+        <f t="shared" ref="F271:F288" si="4">100*(E271/E259-1)</f>
+        <v>6.5352793529794617</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>298</v>
       </c>
@@ -20014,8 +21051,12 @@
       <c r="E272">
         <v>114.94</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272">
+        <f t="shared" si="4"/>
+        <v>6.7818654775176457</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>299</v>
       </c>
@@ -20031,8 +21072,12 @@
       <c r="E273">
         <v>115.49</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F273">
+        <f t="shared" si="4"/>
+        <v>6.5602509688134303</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>300</v>
       </c>
@@ -20048,8 +21093,12 @@
       <c r="E274">
         <v>114.9</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274">
+        <f t="shared" si="4"/>
+        <v>6.2315088757396442</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>301</v>
       </c>
@@ -20065,8 +21114,12 @@
       <c r="E275">
         <v>116.32</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F275">
+        <f t="shared" si="4"/>
+        <v>7.0692194403534581</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>302</v>
       </c>
@@ -20082,8 +21135,12 @@
       <c r="E276">
         <v>116.81</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276">
+        <f t="shared" si="4"/>
+        <v>7.0767256393803324</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>303</v>
       </c>
@@ -20099,8 +21156,12 @@
       <c r="E277">
         <v>116.7</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277">
+        <f t="shared" si="4"/>
+        <v>6.7312968721419342</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>304</v>
       </c>
@@ -20116,8 +21177,12 @@
       <c r="E278">
         <v>117.22</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F278">
+        <f t="shared" si="4"/>
+        <v>7.0404529266733462</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>305</v>
       </c>
@@ -20133,8 +21198,12 @@
       <c r="E279">
         <v>118.55</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F279">
+        <f t="shared" si="4"/>
+        <v>7.2947778079464287</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>306</v>
       </c>
@@ -20150,8 +21219,12 @@
       <c r="E280">
         <v>119.76</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280">
+        <f t="shared" si="4"/>
+        <v>6.6809192944949247</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>307</v>
       </c>
@@ -20167,8 +21240,12 @@
       <c r="E281">
         <v>120.55</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F281">
+        <f t="shared" si="4"/>
+        <v>6.889519418336576</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>308</v>
       </c>
@@ -20184,8 +21261,12 @@
       <c r="E282">
         <v>120.46</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282">
+        <f t="shared" si="4"/>
+        <v>6.0107366012496666</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>309</v>
       </c>
@@ -20201,8 +21282,12 @@
       <c r="E283">
         <v>120.71</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283">
+        <f t="shared" si="4"/>
+        <v>5.3315881326352565</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>310</v>
       </c>
@@ -20218,8 +21303,12 @@
       <c r="E284">
         <v>120.77</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284">
+        <f t="shared" si="4"/>
+        <v>5.0722115886549402</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>311</v>
       </c>
@@ -20235,8 +21324,12 @@
       <c r="E285">
         <v>122.1</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F285">
+        <f t="shared" si="4"/>
+        <v>5.7234392588102923</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>312</v>
       </c>
@@ -20252,8 +21345,12 @@
       <c r="E286">
         <v>121.4</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F286">
+        <f t="shared" si="4"/>
+        <v>5.6570931244560585</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>313</v>
       </c>
@@ -20269,8 +21366,12 @@
       <c r="E287">
         <v>121.61</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F287">
+        <f t="shared" si="4"/>
+        <v>4.5477991746905255</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>314</v>
       </c>
@@ -20285,6 +21386,10 @@
       </c>
       <c r="E288">
         <v>121.27</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="4"/>
+        <v>3.8181662528893101</v>
       </c>
     </row>
   </sheetData>

--- a/main/data/overall_hicp.xlsx
+++ b/main/data/overall_hicp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/SVAR3A/main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F60C86-FB90-E649-BBA6-5DA87F624C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB0DE4C-43C6-A74C-BE41-3CBB74C34E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15091,276 +15091,6 @@
     </row>
   </sheetData>
   <mergeCells count="287">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BR9:BS9"/>
-    <mergeCell ref="BT9:BU9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="DF9:DG9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DP9:DQ9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="DX9:DY9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="EH9:EI9"/>
-    <mergeCell ref="EJ9:EK9"/>
-    <mergeCell ref="EL9:EM9"/>
-    <mergeCell ref="EN9:EO9"/>
-    <mergeCell ref="EP9:EQ9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="EZ9:FA9"/>
-    <mergeCell ref="FB9:FC9"/>
-    <mergeCell ref="FD9:FE9"/>
-    <mergeCell ref="FF9:FG9"/>
-    <mergeCell ref="FH9:FI9"/>
-    <mergeCell ref="FJ9:FK9"/>
-    <mergeCell ref="FL9:FM9"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FP9:FQ9"/>
-    <mergeCell ref="FR9:FS9"/>
-    <mergeCell ref="FT9:FU9"/>
-    <mergeCell ref="FV9:FW9"/>
-    <mergeCell ref="FX9:FY9"/>
-    <mergeCell ref="FZ9:GA9"/>
-    <mergeCell ref="GB9:GC9"/>
-    <mergeCell ref="GD9:GE9"/>
-    <mergeCell ref="GF9:GG9"/>
-    <mergeCell ref="GH9:GI9"/>
-    <mergeCell ref="GJ9:GK9"/>
-    <mergeCell ref="GL9:GM9"/>
-    <mergeCell ref="GN9:GO9"/>
-    <mergeCell ref="GP9:GQ9"/>
-    <mergeCell ref="GR9:GS9"/>
-    <mergeCell ref="GT9:GU9"/>
-    <mergeCell ref="GV9:GW9"/>
-    <mergeCell ref="GX9:GY9"/>
-    <mergeCell ref="GZ9:HA9"/>
-    <mergeCell ref="HB9:HC9"/>
-    <mergeCell ref="HD9:HE9"/>
-    <mergeCell ref="HF9:HG9"/>
-    <mergeCell ref="HH9:HI9"/>
-    <mergeCell ref="HJ9:HK9"/>
-    <mergeCell ref="HL9:HM9"/>
-    <mergeCell ref="HN9:HO9"/>
-    <mergeCell ref="HP9:HQ9"/>
-    <mergeCell ref="HR9:HS9"/>
-    <mergeCell ref="HT9:HU9"/>
-    <mergeCell ref="HV9:HW9"/>
-    <mergeCell ref="HX9:HY9"/>
-    <mergeCell ref="HZ9:IA9"/>
-    <mergeCell ref="IB9:IC9"/>
-    <mergeCell ref="ID9:IE9"/>
-    <mergeCell ref="IF9:IG9"/>
-    <mergeCell ref="IH9:II9"/>
-    <mergeCell ref="IJ9:IK9"/>
-    <mergeCell ref="IL9:IM9"/>
-    <mergeCell ref="IN9:IO9"/>
-    <mergeCell ref="IP9:IQ9"/>
-    <mergeCell ref="IR9:IS9"/>
-    <mergeCell ref="IT9:IU9"/>
-    <mergeCell ref="IV9:IW9"/>
-    <mergeCell ref="IX9:IY9"/>
-    <mergeCell ref="IZ9:JA9"/>
-    <mergeCell ref="JB9:JC9"/>
-    <mergeCell ref="JD9:JE9"/>
-    <mergeCell ref="JF9:JG9"/>
-    <mergeCell ref="JH9:JI9"/>
-    <mergeCell ref="JJ9:JK9"/>
-    <mergeCell ref="JL9:JM9"/>
-    <mergeCell ref="JN9:JO9"/>
-    <mergeCell ref="JP9:JQ9"/>
-    <mergeCell ref="JR9:JS9"/>
-    <mergeCell ref="JT9:JU9"/>
-    <mergeCell ref="JV9:JW9"/>
-    <mergeCell ref="JX9:JY9"/>
-    <mergeCell ref="JZ9:KA9"/>
-    <mergeCell ref="KB9:KC9"/>
-    <mergeCell ref="KD9:KE9"/>
-    <mergeCell ref="KF9:KG9"/>
-    <mergeCell ref="KH9:KI9"/>
-    <mergeCell ref="KJ9:KK9"/>
-    <mergeCell ref="KL9:KM9"/>
-    <mergeCell ref="KN9:KO9"/>
-    <mergeCell ref="KP9:KQ9"/>
-    <mergeCell ref="KR9:KS9"/>
-    <mergeCell ref="KT9:KU9"/>
-    <mergeCell ref="KV9:KW9"/>
-    <mergeCell ref="KX9:KY9"/>
-    <mergeCell ref="KZ9:LA9"/>
-    <mergeCell ref="LB9:LC9"/>
-    <mergeCell ref="LD9:LE9"/>
-    <mergeCell ref="LF9:LG9"/>
-    <mergeCell ref="LH9:LI9"/>
-    <mergeCell ref="LJ9:LK9"/>
-    <mergeCell ref="LL9:LM9"/>
-    <mergeCell ref="LN9:LO9"/>
-    <mergeCell ref="LP9:LQ9"/>
-    <mergeCell ref="LR9:LS9"/>
-    <mergeCell ref="LT9:LU9"/>
-    <mergeCell ref="LV9:LW9"/>
-    <mergeCell ref="LX9:LY9"/>
-    <mergeCell ref="LZ9:MA9"/>
-    <mergeCell ref="MB9:MC9"/>
-    <mergeCell ref="MD9:ME9"/>
-    <mergeCell ref="MF9:MG9"/>
-    <mergeCell ref="MH9:MI9"/>
-    <mergeCell ref="MJ9:MK9"/>
-    <mergeCell ref="ML9:MM9"/>
-    <mergeCell ref="MN9:MO9"/>
-    <mergeCell ref="MP9:MQ9"/>
-    <mergeCell ref="MR9:MS9"/>
-    <mergeCell ref="MT9:MU9"/>
-    <mergeCell ref="MV9:MW9"/>
-    <mergeCell ref="MX9:MY9"/>
-    <mergeCell ref="MZ9:NA9"/>
-    <mergeCell ref="NB9:NC9"/>
-    <mergeCell ref="ND9:NE9"/>
-    <mergeCell ref="NF9:NG9"/>
-    <mergeCell ref="NH9:NI9"/>
-    <mergeCell ref="NJ9:NK9"/>
-    <mergeCell ref="NL9:NM9"/>
-    <mergeCell ref="NN9:NO9"/>
-    <mergeCell ref="NP9:NQ9"/>
-    <mergeCell ref="NR9:NS9"/>
-    <mergeCell ref="NT9:NU9"/>
-    <mergeCell ref="NV9:NW9"/>
-    <mergeCell ref="NX9:NY9"/>
-    <mergeCell ref="NZ9:OA9"/>
-    <mergeCell ref="OB9:OC9"/>
-    <mergeCell ref="OD9:OE9"/>
-    <mergeCell ref="OF9:OG9"/>
-    <mergeCell ref="OH9:OI9"/>
-    <mergeCell ref="OJ9:OK9"/>
-    <mergeCell ref="OL9:OM9"/>
-    <mergeCell ref="ON9:OO9"/>
-    <mergeCell ref="OP9:OQ9"/>
-    <mergeCell ref="OR9:OS9"/>
-    <mergeCell ref="OT9:OU9"/>
-    <mergeCell ref="OV9:OW9"/>
-    <mergeCell ref="OX9:OY9"/>
-    <mergeCell ref="OZ9:PA9"/>
-    <mergeCell ref="PB9:PC9"/>
-    <mergeCell ref="PD9:PE9"/>
-    <mergeCell ref="PF9:PG9"/>
-    <mergeCell ref="PH9:PI9"/>
-    <mergeCell ref="PJ9:PK9"/>
-    <mergeCell ref="PL9:PM9"/>
-    <mergeCell ref="PN9:PO9"/>
-    <mergeCell ref="PP9:PQ9"/>
-    <mergeCell ref="PR9:PS9"/>
-    <mergeCell ref="PT9:PU9"/>
-    <mergeCell ref="PV9:PW9"/>
-    <mergeCell ref="PX9:PY9"/>
-    <mergeCell ref="PZ9:QA9"/>
-    <mergeCell ref="QB9:QC9"/>
-    <mergeCell ref="QD9:QE9"/>
-    <mergeCell ref="QF9:QG9"/>
-    <mergeCell ref="QH9:QI9"/>
-    <mergeCell ref="QJ9:QK9"/>
-    <mergeCell ref="QL9:QM9"/>
-    <mergeCell ref="QN9:QO9"/>
-    <mergeCell ref="QP9:QQ9"/>
-    <mergeCell ref="QR9:QS9"/>
-    <mergeCell ref="QT9:QU9"/>
-    <mergeCell ref="QV9:QW9"/>
-    <mergeCell ref="QX9:QY9"/>
-    <mergeCell ref="QZ9:RA9"/>
-    <mergeCell ref="RB9:RC9"/>
-    <mergeCell ref="RD9:RE9"/>
-    <mergeCell ref="RF9:RG9"/>
-    <mergeCell ref="RH9:RI9"/>
-    <mergeCell ref="RJ9:RK9"/>
-    <mergeCell ref="RL9:RM9"/>
-    <mergeCell ref="RN9:RO9"/>
-    <mergeCell ref="RP9:RQ9"/>
-    <mergeCell ref="RR9:RS9"/>
-    <mergeCell ref="RT9:RU9"/>
-    <mergeCell ref="RV9:RW9"/>
-    <mergeCell ref="RX9:RY9"/>
-    <mergeCell ref="RZ9:SA9"/>
-    <mergeCell ref="SB9:SC9"/>
-    <mergeCell ref="SD9:SE9"/>
-    <mergeCell ref="SF9:SG9"/>
-    <mergeCell ref="SH9:SI9"/>
-    <mergeCell ref="SJ9:SK9"/>
-    <mergeCell ref="SL9:SM9"/>
-    <mergeCell ref="SN9:SO9"/>
-    <mergeCell ref="SP9:SQ9"/>
-    <mergeCell ref="SR9:SS9"/>
-    <mergeCell ref="ST9:SU9"/>
-    <mergeCell ref="SV9:SW9"/>
-    <mergeCell ref="SX9:SY9"/>
-    <mergeCell ref="SZ9:TA9"/>
-    <mergeCell ref="TB9:TC9"/>
-    <mergeCell ref="TD9:TE9"/>
-    <mergeCell ref="TF9:TG9"/>
-    <mergeCell ref="TH9:TI9"/>
-    <mergeCell ref="TJ9:TK9"/>
-    <mergeCell ref="TL9:TM9"/>
-    <mergeCell ref="TN9:TO9"/>
-    <mergeCell ref="TP9:TQ9"/>
-    <mergeCell ref="TR9:TS9"/>
-    <mergeCell ref="TT9:TU9"/>
     <mergeCell ref="UN9:UO9"/>
     <mergeCell ref="UP9:UQ9"/>
     <mergeCell ref="UR9:US9"/>
@@ -15378,6 +15108,276 @@
     <mergeCell ref="UH9:UI9"/>
     <mergeCell ref="UJ9:UK9"/>
     <mergeCell ref="UL9:UM9"/>
+    <mergeCell ref="TD9:TE9"/>
+    <mergeCell ref="TF9:TG9"/>
+    <mergeCell ref="TH9:TI9"/>
+    <mergeCell ref="TJ9:TK9"/>
+    <mergeCell ref="TL9:TM9"/>
+    <mergeCell ref="TN9:TO9"/>
+    <mergeCell ref="TP9:TQ9"/>
+    <mergeCell ref="TR9:TS9"/>
+    <mergeCell ref="TT9:TU9"/>
+    <mergeCell ref="SL9:SM9"/>
+    <mergeCell ref="SN9:SO9"/>
+    <mergeCell ref="SP9:SQ9"/>
+    <mergeCell ref="SR9:SS9"/>
+    <mergeCell ref="ST9:SU9"/>
+    <mergeCell ref="SV9:SW9"/>
+    <mergeCell ref="SX9:SY9"/>
+    <mergeCell ref="SZ9:TA9"/>
+    <mergeCell ref="TB9:TC9"/>
+    <mergeCell ref="RT9:RU9"/>
+    <mergeCell ref="RV9:RW9"/>
+    <mergeCell ref="RX9:RY9"/>
+    <mergeCell ref="RZ9:SA9"/>
+    <mergeCell ref="SB9:SC9"/>
+    <mergeCell ref="SD9:SE9"/>
+    <mergeCell ref="SF9:SG9"/>
+    <mergeCell ref="SH9:SI9"/>
+    <mergeCell ref="SJ9:SK9"/>
+    <mergeCell ref="RB9:RC9"/>
+    <mergeCell ref="RD9:RE9"/>
+    <mergeCell ref="RF9:RG9"/>
+    <mergeCell ref="RH9:RI9"/>
+    <mergeCell ref="RJ9:RK9"/>
+    <mergeCell ref="RL9:RM9"/>
+    <mergeCell ref="RN9:RO9"/>
+    <mergeCell ref="RP9:RQ9"/>
+    <mergeCell ref="RR9:RS9"/>
+    <mergeCell ref="QJ9:QK9"/>
+    <mergeCell ref="QL9:QM9"/>
+    <mergeCell ref="QN9:QO9"/>
+    <mergeCell ref="QP9:QQ9"/>
+    <mergeCell ref="QR9:QS9"/>
+    <mergeCell ref="QT9:QU9"/>
+    <mergeCell ref="QV9:QW9"/>
+    <mergeCell ref="QX9:QY9"/>
+    <mergeCell ref="QZ9:RA9"/>
+    <mergeCell ref="PR9:PS9"/>
+    <mergeCell ref="PT9:PU9"/>
+    <mergeCell ref="PV9:PW9"/>
+    <mergeCell ref="PX9:PY9"/>
+    <mergeCell ref="PZ9:QA9"/>
+    <mergeCell ref="QB9:QC9"/>
+    <mergeCell ref="QD9:QE9"/>
+    <mergeCell ref="QF9:QG9"/>
+    <mergeCell ref="QH9:QI9"/>
+    <mergeCell ref="OZ9:PA9"/>
+    <mergeCell ref="PB9:PC9"/>
+    <mergeCell ref="PD9:PE9"/>
+    <mergeCell ref="PF9:PG9"/>
+    <mergeCell ref="PH9:PI9"/>
+    <mergeCell ref="PJ9:PK9"/>
+    <mergeCell ref="PL9:PM9"/>
+    <mergeCell ref="PN9:PO9"/>
+    <mergeCell ref="PP9:PQ9"/>
+    <mergeCell ref="OH9:OI9"/>
+    <mergeCell ref="OJ9:OK9"/>
+    <mergeCell ref="OL9:OM9"/>
+    <mergeCell ref="ON9:OO9"/>
+    <mergeCell ref="OP9:OQ9"/>
+    <mergeCell ref="OR9:OS9"/>
+    <mergeCell ref="OT9:OU9"/>
+    <mergeCell ref="OV9:OW9"/>
+    <mergeCell ref="OX9:OY9"/>
+    <mergeCell ref="NP9:NQ9"/>
+    <mergeCell ref="NR9:NS9"/>
+    <mergeCell ref="NT9:NU9"/>
+    <mergeCell ref="NV9:NW9"/>
+    <mergeCell ref="NX9:NY9"/>
+    <mergeCell ref="NZ9:OA9"/>
+    <mergeCell ref="OB9:OC9"/>
+    <mergeCell ref="OD9:OE9"/>
+    <mergeCell ref="OF9:OG9"/>
+    <mergeCell ref="MX9:MY9"/>
+    <mergeCell ref="MZ9:NA9"/>
+    <mergeCell ref="NB9:NC9"/>
+    <mergeCell ref="ND9:NE9"/>
+    <mergeCell ref="NF9:NG9"/>
+    <mergeCell ref="NH9:NI9"/>
+    <mergeCell ref="NJ9:NK9"/>
+    <mergeCell ref="NL9:NM9"/>
+    <mergeCell ref="NN9:NO9"/>
+    <mergeCell ref="MF9:MG9"/>
+    <mergeCell ref="MH9:MI9"/>
+    <mergeCell ref="MJ9:MK9"/>
+    <mergeCell ref="ML9:MM9"/>
+    <mergeCell ref="MN9:MO9"/>
+    <mergeCell ref="MP9:MQ9"/>
+    <mergeCell ref="MR9:MS9"/>
+    <mergeCell ref="MT9:MU9"/>
+    <mergeCell ref="MV9:MW9"/>
+    <mergeCell ref="LN9:LO9"/>
+    <mergeCell ref="LP9:LQ9"/>
+    <mergeCell ref="LR9:LS9"/>
+    <mergeCell ref="LT9:LU9"/>
+    <mergeCell ref="LV9:LW9"/>
+    <mergeCell ref="LX9:LY9"/>
+    <mergeCell ref="LZ9:MA9"/>
+    <mergeCell ref="MB9:MC9"/>
+    <mergeCell ref="MD9:ME9"/>
+    <mergeCell ref="KV9:KW9"/>
+    <mergeCell ref="KX9:KY9"/>
+    <mergeCell ref="KZ9:LA9"/>
+    <mergeCell ref="LB9:LC9"/>
+    <mergeCell ref="LD9:LE9"/>
+    <mergeCell ref="LF9:LG9"/>
+    <mergeCell ref="LH9:LI9"/>
+    <mergeCell ref="LJ9:LK9"/>
+    <mergeCell ref="LL9:LM9"/>
+    <mergeCell ref="KD9:KE9"/>
+    <mergeCell ref="KF9:KG9"/>
+    <mergeCell ref="KH9:KI9"/>
+    <mergeCell ref="KJ9:KK9"/>
+    <mergeCell ref="KL9:KM9"/>
+    <mergeCell ref="KN9:KO9"/>
+    <mergeCell ref="KP9:KQ9"/>
+    <mergeCell ref="KR9:KS9"/>
+    <mergeCell ref="KT9:KU9"/>
+    <mergeCell ref="JL9:JM9"/>
+    <mergeCell ref="JN9:JO9"/>
+    <mergeCell ref="JP9:JQ9"/>
+    <mergeCell ref="JR9:JS9"/>
+    <mergeCell ref="JT9:JU9"/>
+    <mergeCell ref="JV9:JW9"/>
+    <mergeCell ref="JX9:JY9"/>
+    <mergeCell ref="JZ9:KA9"/>
+    <mergeCell ref="KB9:KC9"/>
+    <mergeCell ref="IT9:IU9"/>
+    <mergeCell ref="IV9:IW9"/>
+    <mergeCell ref="IX9:IY9"/>
+    <mergeCell ref="IZ9:JA9"/>
+    <mergeCell ref="JB9:JC9"/>
+    <mergeCell ref="JD9:JE9"/>
+    <mergeCell ref="JF9:JG9"/>
+    <mergeCell ref="JH9:JI9"/>
+    <mergeCell ref="JJ9:JK9"/>
+    <mergeCell ref="IB9:IC9"/>
+    <mergeCell ref="ID9:IE9"/>
+    <mergeCell ref="IF9:IG9"/>
+    <mergeCell ref="IH9:II9"/>
+    <mergeCell ref="IJ9:IK9"/>
+    <mergeCell ref="IL9:IM9"/>
+    <mergeCell ref="IN9:IO9"/>
+    <mergeCell ref="IP9:IQ9"/>
+    <mergeCell ref="IR9:IS9"/>
+    <mergeCell ref="HJ9:HK9"/>
+    <mergeCell ref="HL9:HM9"/>
+    <mergeCell ref="HN9:HO9"/>
+    <mergeCell ref="HP9:HQ9"/>
+    <mergeCell ref="HR9:HS9"/>
+    <mergeCell ref="HT9:HU9"/>
+    <mergeCell ref="HV9:HW9"/>
+    <mergeCell ref="HX9:HY9"/>
+    <mergeCell ref="HZ9:IA9"/>
+    <mergeCell ref="GR9:GS9"/>
+    <mergeCell ref="GT9:GU9"/>
+    <mergeCell ref="GV9:GW9"/>
+    <mergeCell ref="GX9:GY9"/>
+    <mergeCell ref="GZ9:HA9"/>
+    <mergeCell ref="HB9:HC9"/>
+    <mergeCell ref="HD9:HE9"/>
+    <mergeCell ref="HF9:HG9"/>
+    <mergeCell ref="HH9:HI9"/>
+    <mergeCell ref="FZ9:GA9"/>
+    <mergeCell ref="GB9:GC9"/>
+    <mergeCell ref="GD9:GE9"/>
+    <mergeCell ref="GF9:GG9"/>
+    <mergeCell ref="GH9:GI9"/>
+    <mergeCell ref="GJ9:GK9"/>
+    <mergeCell ref="GL9:GM9"/>
+    <mergeCell ref="GN9:GO9"/>
+    <mergeCell ref="GP9:GQ9"/>
+    <mergeCell ref="FH9:FI9"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FL9:FM9"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FP9:FQ9"/>
+    <mergeCell ref="FR9:FS9"/>
+    <mergeCell ref="FT9:FU9"/>
+    <mergeCell ref="FV9:FW9"/>
+    <mergeCell ref="FX9:FY9"/>
+    <mergeCell ref="EP9:EQ9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="EZ9:FA9"/>
+    <mergeCell ref="FB9:FC9"/>
+    <mergeCell ref="FD9:FE9"/>
+    <mergeCell ref="FF9:FG9"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="EN9:EO9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15385,10 +15385,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCB8985-377B-6D42-B75F-E39DBBF41ABD}">
-  <dimension ref="A1:F288"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="H250" sqref="H250"/>
+    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
+      <selection activeCell="H298" sqref="H298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15396,7 +15396,7 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>327</v>
       </c>
@@ -15413,7 +15413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -15430,7 +15430,7 @@
         <v>77.430000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -15447,7 +15447,7 @@
         <v>77.53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>77.92</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -15481,7 +15481,7 @@
         <v>77.92</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>78.08</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -15515,7 +15515,7 @@
         <v>78.290000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -15532,7 +15532,7 @@
         <v>78.150000000000006</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -15549,7 +15549,7 @@
         <v>78.319999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -15566,7 +15566,7 @@
         <v>78.739999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>78.67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>78.849999999999994</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>78.819999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -15633,12 +15633,8 @@
       <c r="E14">
         <v>78.47</v>
       </c>
-      <c r="F14">
-        <f>100*(E14/E2-1)</f>
-        <v>1.3431486503938883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -15654,12 +15650,8 @@
       <c r="E15">
         <v>78.69</v>
       </c>
-      <c r="F15">
-        <f t="shared" ref="F15:F78" si="0">100*(E15/E3-1)</f>
-        <v>1.4961950212820874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -15675,12 +15667,8 @@
       <c r="E16">
         <v>79.069999999999993</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>1.4758726899383845</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -15696,12 +15684,8 @@
       <c r="E17">
         <v>79.48</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>2.0020533880903413</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -15717,12 +15701,8 @@
       <c r="E18">
         <v>79.989999999999995</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>2.4462090163934302</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -15738,12 +15718,8 @@
       <c r="E19">
         <v>80.05</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>2.2480521139353504</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -15759,12 +15735,8 @@
       <c r="E20">
         <v>79.87</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>2.20089571337172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -15780,12 +15752,8 @@
       <c r="E21">
         <v>79.87</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>1.9790602655771261</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -15801,12 +15769,8 @@
       <c r="E22">
         <v>80.03</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>1.6383032766065675</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -15822,12 +15786,8 @@
       <c r="E23">
         <v>80.08</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>1.7922969365704811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -15843,12 +15803,8 @@
       <c r="E24">
         <v>79.87</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>1.2935954343690659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -15864,12 +15820,8 @@
       <c r="E25">
         <v>79.98</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>1.471707688403967</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -15885,12 +15837,8 @@
       <c r="E26">
         <v>80.37</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>2.4213075060532718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -15906,12 +15854,8 @@
       <c r="E27">
         <v>80.45</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>2.2366247299529851</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -15927,12 +15871,8 @@
       <c r="E28">
         <v>80.8</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>2.1879347413684025</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -15948,12 +15888,8 @@
       <c r="E29">
         <v>81.13</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>2.0759939607448263</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -15969,12 +15905,8 @@
       <c r="E30">
         <v>81.239999999999995</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="0"/>
-        <v>1.5626953369171082</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -15990,12 +15922,8 @@
       <c r="E31">
         <v>81.2</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="0"/>
-        <v>1.4366021236727144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -16011,12 +15939,8 @@
       <c r="E32">
         <v>81.13</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="0"/>
-        <v>1.5775635407537125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -16032,12 +15956,8 @@
       <c r="E33">
         <v>81.31</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="0"/>
-        <v>1.8029297608614048</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>60</v>
       </c>
@@ -16053,12 +15973,8 @@
       <c r="E34">
         <v>81.47</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="0"/>
-        <v>1.799325253030104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>61</v>
       </c>
@@ -16074,12 +15990,8 @@
       <c r="E35">
         <v>81.61</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>1.9105894105894139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -16095,12 +16007,8 @@
       <c r="E36">
         <v>81.56</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>2.1159383998998305</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -16116,12 +16024,8 @@
       <c r="E37">
         <v>81.7</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>2.1505376344086002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -16137,12 +16041,8 @@
       <c r="E38">
         <v>81.87</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>1.8663680477790212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -16158,12 +16058,8 @@
       <c r="E39">
         <v>82.51</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>2.5605966438781769</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -16179,12 +16075,8 @@
       <c r="E40">
         <v>82.85</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>2.5371287128712838</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -16200,12 +16092,8 @@
       <c r="E41">
         <v>82.72</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>1.9598175767287174</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -16221,12 +16109,8 @@
       <c r="E42">
         <v>82.67</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>1.7602166420482623</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -16242,12 +16126,8 @@
       <c r="E43">
         <v>82.83</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>2.0073891625615792</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -16263,12 +16143,8 @@
       <c r="E44">
         <v>82.73</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>1.9721434734377041</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -16284,12 +16160,8 @@
       <c r="E45">
         <v>82.94</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>2.0046734718976778</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>72</v>
       </c>
@@ -16305,12 +16177,8 @@
       <c r="E46">
         <v>83.3</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>2.2462256045169937</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>73</v>
       </c>
@@ -16326,12 +16194,8 @@
       <c r="E47">
         <v>83.48</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>2.291385859576045</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -16347,12 +16211,8 @@
       <c r="E48">
         <v>83.56</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>2.4521824423737071</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>75</v>
       </c>
@@ -16368,12 +16228,8 @@
       <c r="E49">
         <v>83.66</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>2.3990208078335407</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>76</v>
       </c>
@@ -16389,12 +16245,8 @@
       <c r="E50">
         <v>83.68</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>2.2108220349334351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -16410,12 +16262,8 @@
       <c r="E51">
         <v>84.06</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>1.8785601745243019</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -16431,12 +16279,8 @@
       <c r="E52">
         <v>84.44</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>1.9191309595654849</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -16452,12 +16296,8 @@
       <c r="E53">
         <v>84.67</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>2.3573500967118077</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>80</v>
       </c>
@@ -16473,12 +16313,8 @@
       <c r="E54">
         <v>85.01</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>2.8305310269747253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -16494,12 +16330,8 @@
       <c r="E55">
         <v>85.04</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>2.668115417119421</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>82</v>
       </c>
@@ -16515,12 +16347,8 @@
       <c r="E56">
         <v>84.87</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>2.5867279100689089</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>83</v>
       </c>
@@ -16536,12 +16364,8 @@
       <c r="E57">
         <v>85.08</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>2.580178442247405</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>84</v>
       </c>
@@ -16557,12 +16381,8 @@
       <c r="E58">
         <v>85.16</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>2.2328931572628941</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>85</v>
       </c>
@@ -16578,12 +16398,8 @@
       <c r="E59">
         <v>85.39</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>2.2879731672256876</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>86</v>
       </c>
@@ -16599,12 +16415,8 @@
       <c r="E60">
         <v>85.43</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>2.2379128769746348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>87</v>
       </c>
@@ -16620,12 +16432,8 @@
       <c r="E61">
         <v>85.54</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>2.2471910112359605</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -16641,12 +16449,8 @@
       <c r="E62">
         <v>85.06</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>1.6491395793498898</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>89</v>
       </c>
@@ -16662,12 +16466,8 @@
       <c r="E63">
         <v>85.63</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>1.8677135379490784</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -16683,12 +16483,8 @@
       <c r="E64">
         <v>86.22</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>2.1080056845097062</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -16704,12 +16500,8 @@
       <c r="E65">
         <v>86.37</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>2.0077949687020258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -16725,12 +16517,8 @@
       <c r="E66">
         <v>86.43</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>1.6703917186213335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -16746,12 +16534,8 @@
       <c r="E67">
         <v>86.54</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="0"/>
-        <v>1.7638758231420582</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -16767,12 +16551,8 @@
       <c r="E68">
         <v>86.39</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="0"/>
-        <v>1.7909744314834386</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>95</v>
       </c>
@@ -16788,12 +16568,8 @@
       <c r="E69">
         <v>86.75</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="0"/>
-        <v>1.9628584861306919</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>96</v>
       </c>
@@ -16809,12 +16585,8 @@
       <c r="E70">
         <v>87.13</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="0"/>
-        <v>2.3132926256458353</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -16830,12 +16602,8 @@
       <c r="E71">
         <v>87.12</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="0"/>
-        <v>2.0259983604637544</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -16851,12 +16619,8 @@
       <c r="E72">
         <v>86.93</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="0"/>
-        <v>1.7558234812126816</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -16872,12 +16636,8 @@
       <c r="E73">
         <v>87.04</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="0"/>
-        <v>1.753565583352823</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -16893,12 +16653,8 @@
       <c r="E74">
         <v>86.97</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="0"/>
-        <v>2.2454737832118488</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>101</v>
       </c>
@@ -16914,12 +16670,8 @@
       <c r="E75">
         <v>87.31</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="0"/>
-        <v>1.9619292304099201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>102</v>
       </c>
@@ -16935,12 +16687,8 @@
       <c r="E76">
         <v>87.69</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="0"/>
-        <v>1.7049408489909545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -16956,12 +16704,8 @@
       <c r="E77">
         <v>88.08</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="0"/>
-        <v>1.9798541160124916</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -16977,12 +16721,8 @@
       <c r="E78">
         <v>88.46</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="0"/>
-        <v>2.3487215087353741</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>105</v>
       </c>
@@ -16998,12 +16738,8 @@
       <c r="E79">
         <v>88.46</v>
       </c>
-      <c r="F79">
-        <f t="shared" ref="F79:F142" si="1">100*(E79/E67-1)</f>
-        <v>2.2186272244048899</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>106</v>
       </c>
@@ -17019,12 +16755,8 @@
       <c r="E80">
         <v>88.29</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>2.1993286259983869</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>107</v>
       </c>
@@ -17040,12 +16772,8 @@
       <c r="E81">
         <v>88.58</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>2.109510086455324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>108</v>
       </c>
@@ -17061,12 +16789,8 @@
       <c r="E82">
         <v>88.4</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>1.4575921037530248</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -17082,12 +16806,8 @@
       <c r="E83">
         <v>88.19</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>1.2281910009182662</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>110</v>
       </c>
@@ -17103,12 +16823,8 @@
       <c r="E84">
         <v>88.3</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="1"/>
-        <v>1.5759806741055815</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>111</v>
       </c>
@@ -17124,12 +16840,8 @@
       <c r="E85">
         <v>88.51</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="1"/>
-        <v>1.6888786764705843</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>112</v>
       </c>
@@ -17145,12 +16857,8 @@
       <c r="E86">
         <v>88.17</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="1"/>
-        <v>1.3797861331493744</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>113</v>
       </c>
@@ -17166,12 +16874,8 @@
       <c r="E87">
         <v>88.36</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="1"/>
-        <v>1.2026113847211084</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -17187,12 +16891,8 @@
       <c r="E88">
         <v>88.77</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="1"/>
-        <v>1.2316113581936294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>115</v>
       </c>
@@ -17208,12 +16908,8 @@
       <c r="E89">
         <v>89.25</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="1"/>
-        <v>1.3283378746594021</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>116</v>
       </c>
@@ -17229,12 +16925,8 @@
       <c r="E90">
         <v>89.48</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="1"/>
-        <v>1.1530635315396998</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -17250,12 +16942,8 @@
       <c r="E91">
         <v>89.61</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>1.3000226090888578</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>118</v>
       </c>
@@ -17271,12 +16959,8 @@
       <c r="E92">
         <v>89.32</v>
       </c>
-      <c r="F92">
-        <f t="shared" si="1"/>
-        <v>1.1666100351115594</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -17292,12 +16976,8 @@
       <c r="E93">
         <v>89.7</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="1"/>
-        <v>1.2643937683449957</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>120</v>
       </c>
@@ -17313,12 +16993,8 @@
       <c r="E94">
         <v>89.83</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="1"/>
-        <v>1.6176470588235237</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -17334,12 +17010,8 @@
       <c r="E95">
         <v>90.08</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="1"/>
-        <v>2.1431001247306902</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>122</v>
       </c>
@@ -17355,12 +17027,8 @@
       <c r="E96">
         <v>90.62</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="1"/>
-        <v>2.6274065685164327</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>123</v>
       </c>
@@ -17376,12 +17044,8 @@
       <c r="E97">
         <v>90.99</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="1"/>
-        <v>2.8019432832448121</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>124</v>
       </c>
@@ -17397,12 +17061,8 @@
       <c r="E98">
         <v>90.98</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="1"/>
-        <v>3.1870250652149323</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>125</v>
       </c>
@@ -17418,12 +17078,8 @@
       <c r="E99">
         <v>91.18</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="1"/>
-        <v>3.1914893617021267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -17439,12 +17095,8 @@
       <c r="E100">
         <v>91.91</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="1"/>
-        <v>3.5372310465247248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -17460,12 +17112,8 @@
       <c r="E101">
         <v>92.26</v>
       </c>
-      <c r="F101">
-        <f t="shared" si="1"/>
-        <v>3.37254901960784</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -17481,12 +17129,8 @@
       <c r="E102">
         <v>92.79</v>
       </c>
-      <c r="F102">
-        <f t="shared" si="1"/>
-        <v>3.6991506481895309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -17502,12 +17146,8 @@
       <c r="E103">
         <v>93.18</v>
       </c>
-      <c r="F103">
-        <f t="shared" si="1"/>
-        <v>3.9839303649146451</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>130</v>
       </c>
@@ -17523,12 +17163,8 @@
       <c r="E104">
         <v>92.93</v>
       </c>
-      <c r="F104">
-        <f t="shared" si="1"/>
-        <v>4.0416480071652661</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>131</v>
       </c>
@@ -17544,12 +17180,8 @@
       <c r="E105">
         <v>92.87</v>
       </c>
-      <c r="F105">
-        <f t="shared" si="1"/>
-        <v>3.5340022296544094</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>132</v>
       </c>
@@ -17565,12 +17197,8 @@
       <c r="E106">
         <v>92.84</v>
       </c>
-      <c r="F106">
-        <f t="shared" si="1"/>
-        <v>3.3507736836246194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>133</v>
       </c>
@@ -17586,12 +17214,8 @@
       <c r="E107">
         <v>92.79</v>
       </c>
-      <c r="F107">
-        <f t="shared" si="1"/>
-        <v>3.0084369449378423</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>134</v>
       </c>
@@ -17607,12 +17231,8 @@
       <c r="E108">
         <v>92.32</v>
       </c>
-      <c r="F108">
-        <f t="shared" si="1"/>
-        <v>1.8759655705142153</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>135</v>
       </c>
@@ -17628,12 +17248,8 @@
       <c r="E109">
         <v>92.07</v>
       </c>
-      <c r="F109">
-        <f t="shared" si="1"/>
-        <v>1.1869436201780381</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>136</v>
       </c>
@@ -17649,12 +17265,8 @@
       <c r="E110">
         <v>91.67</v>
       </c>
-      <c r="F110">
-        <f t="shared" si="1"/>
-        <v>0.75840844141570329</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>137</v>
       </c>
@@ -17670,12 +17282,8 @@
       <c r="E111">
         <v>92.06</v>
       </c>
-      <c r="F111">
-        <f t="shared" si="1"/>
-        <v>0.96512393068655111</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>138</v>
       </c>
@@ -17691,12 +17299,8 @@
       <c r="E112">
         <v>92.24</v>
       </c>
-      <c r="F112">
-        <f t="shared" si="1"/>
-        <v>0.35904689370036547</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>139</v>
       </c>
@@ -17712,12 +17316,8 @@
       <c r="E113">
         <v>92.39</v>
       </c>
-      <c r="F113">
-        <f t="shared" si="1"/>
-        <v>0.14090613483632719</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>140</v>
       </c>
@@ -17733,12 +17333,8 @@
       <c r="E114">
         <v>92.52</v>
       </c>
-      <c r="F114">
-        <f t="shared" si="1"/>
-        <v>-0.29097963142581396</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>141</v>
       </c>
@@ -17754,12 +17350,8 @@
       <c r="E115">
         <v>92.65</v>
       </c>
-      <c r="F115">
-        <f t="shared" si="1"/>
-        <v>-0.56879158617729741</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>142</v>
       </c>
@@ -17775,12 +17367,8 @@
       <c r="E116">
         <v>92.19</v>
       </c>
-      <c r="F116">
-        <f t="shared" si="1"/>
-        <v>-0.79629828903476918</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>143</v>
       </c>
@@ -17796,12 +17384,8 @@
       <c r="E117">
         <v>92.7</v>
       </c>
-      <c r="F117">
-        <f t="shared" si="1"/>
-        <v>-0.18305157747389167</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>144</v>
       </c>
@@ -17817,12 +17401,8 @@
       <c r="E118">
         <v>92.49</v>
       </c>
-      <c r="F118">
-        <f t="shared" si="1"/>
-        <v>-0.37699267557088634</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>145</v>
       </c>
@@ -17838,12 +17418,8 @@
       <c r="E119">
         <v>92.59</v>
       </c>
-      <c r="F119">
-        <f t="shared" si="1"/>
-        <v>-0.21554046772281898</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>146</v>
       </c>
@@ -17859,12 +17435,8 @@
       <c r="E120">
         <v>92.74</v>
       </c>
-      <c r="F120">
-        <f t="shared" si="1"/>
-        <v>0.45493934142115666</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>147</v>
       </c>
@@ -17880,12 +17452,8 @@
       <c r="E121">
         <v>93.01</v>
       </c>
-      <c r="F121">
-        <f t="shared" si="1"/>
-        <v>1.0209623112849009</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>148</v>
       </c>
@@ -17901,12 +17469,8 @@
       <c r="E122">
         <v>92.79</v>
       </c>
-      <c r="F122">
-        <f t="shared" si="1"/>
-        <v>1.2217737536816875</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>149</v>
       </c>
@@ -17922,12 +17486,8 @@
       <c r="E123">
         <v>93.36</v>
       </c>
-      <c r="F123">
-        <f t="shared" si="1"/>
-        <v>1.4121225287855754</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>150</v>
       </c>
@@ -17943,12 +17503,8 @@
       <c r="E124">
         <v>93.85</v>
       </c>
-      <c r="F124">
-        <f t="shared" si="1"/>
-        <v>1.7454466608846531</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>151</v>
       </c>
@@ -17964,12 +17520,8 @@
       <c r="E125">
         <v>94.14</v>
       </c>
-      <c r="F125">
-        <f t="shared" si="1"/>
-        <v>1.8941443879207709</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>152</v>
       </c>
@@ -17985,12 +17537,8 @@
       <c r="E126">
         <v>94.27</v>
       </c>
-      <c r="F126">
-        <f t="shared" si="1"/>
-        <v>1.8914829226113206</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>153</v>
       </c>
@@ -18006,12 +17554,8 @@
       <c r="E127">
         <v>94.26</v>
       </c>
-      <c r="F127">
-        <f t="shared" si="1"/>
-        <v>1.7377226119805744</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>154</v>
       </c>
@@ -18027,12 +17571,8 @@
       <c r="E128">
         <v>93.95</v>
       </c>
-      <c r="F128">
-        <f t="shared" si="1"/>
-        <v>1.9091007701486085</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>155</v>
       </c>
@@ -18048,12 +17588,8 @@
       <c r="E129">
         <v>94.19</v>
       </c>
-      <c r="F129">
-        <f t="shared" si="1"/>
-        <v>1.6073354908306303</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>156</v>
       </c>
@@ -18069,12 +17605,8 @@
       <c r="E130">
         <v>94.15</v>
       </c>
-      <c r="F130">
-        <f t="shared" si="1"/>
-        <v>1.7947886257974055</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>157</v>
       </c>
@@ -18090,12 +17622,8 @@
       <c r="E131">
         <v>94.29</v>
       </c>
-      <c r="F131">
-        <f t="shared" si="1"/>
-        <v>1.8360514094394764</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>158</v>
       </c>
@@ -18111,12 +17639,8 @@
       <c r="E132">
         <v>94.41</v>
       </c>
-      <c r="F132">
-        <f t="shared" si="1"/>
-        <v>1.8007332326935632</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>159</v>
       </c>
@@ -18132,12 +17656,8 @@
       <c r="E133">
         <v>94.88</v>
       </c>
-      <c r="F133">
-        <f t="shared" si="1"/>
-        <v>2.0105365014514431</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>160</v>
       </c>
@@ -18153,12 +17673,8 @@
       <c r="E134">
         <v>94.6</v>
       </c>
-      <c r="F134">
-        <f t="shared" si="1"/>
-        <v>1.9506412328914591</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>161</v>
       </c>
@@ -18174,12 +17690,8 @@
       <c r="E135">
         <v>95.07</v>
       </c>
-      <c r="F135">
-        <f t="shared" si="1"/>
-        <v>1.8316195372750643</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>162</v>
       </c>
@@ -18195,12 +17707,8 @@
       <c r="E136">
         <v>95.9</v>
       </c>
-      <c r="F136">
-        <f t="shared" si="1"/>
-        <v>2.1843367075119913</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>163</v>
       </c>
@@ -18216,12 +17724,8 @@
       <c r="E137">
         <v>96.24</v>
       </c>
-      <c r="F137">
-        <f t="shared" si="1"/>
-        <v>2.2307202039515639</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>164</v>
       </c>
@@ -18237,12 +17741,8 @@
       <c r="E138">
         <v>96.31</v>
       </c>
-      <c r="F138">
-        <f t="shared" si="1"/>
-        <v>2.1639970298080069</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>165</v>
       </c>
@@ -18258,12 +17758,8 @@
       <c r="E139">
         <v>96.39</v>
       </c>
-      <c r="F139">
-        <f t="shared" si="1"/>
-        <v>2.2597071928707857</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>166</v>
       </c>
@@ -18279,12 +17775,8 @@
       <c r="E140">
         <v>95.91</v>
       </c>
-      <c r="F140">
-        <f t="shared" si="1"/>
-        <v>2.0862160723789103</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>167</v>
       </c>
@@ -18300,12 +17792,8 @@
       <c r="E141">
         <v>96.46</v>
       </c>
-      <c r="F141">
-        <f t="shared" si="1"/>
-        <v>2.4100222953604478</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>168</v>
       </c>
@@ -18321,12 +17809,8 @@
       <c r="E142">
         <v>96.43</v>
       </c>
-      <c r="F142">
-        <f t="shared" si="1"/>
-        <v>2.4216675517790831</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>169</v>
       </c>
@@ -18342,12 +17826,8 @@
       <c r="E143">
         <v>96.69</v>
       </c>
-      <c r="F143">
-        <f t="shared" ref="F143:F206" si="2">100*(E143/E131-1)</f>
-        <v>2.5453388482341577</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>170</v>
       </c>
@@ -18363,12 +17843,8 @@
       <c r="E144">
         <v>96.99</v>
       </c>
-      <c r="F144">
-        <f t="shared" si="2"/>
-        <v>2.7327613600254264</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>171</v>
       </c>
@@ -18384,12 +17860,8 @@
       <c r="E145">
         <v>97.41</v>
       </c>
-      <c r="F145">
-        <f t="shared" si="2"/>
-        <v>2.6665261382799343</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>172</v>
       </c>
@@ -18405,12 +17877,8 @@
       <c r="E146">
         <v>97.03</v>
       </c>
-      <c r="F146">
-        <f t="shared" si="2"/>
-        <v>2.568710359408044</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>173</v>
       </c>
@@ -18426,12 +17894,8 @@
       <c r="E147">
         <v>97.49</v>
       </c>
-      <c r="F147">
-        <f t="shared" si="2"/>
-        <v>2.5454927947827999</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>174</v>
       </c>
@@ -18447,12 +17911,8 @@
       <c r="E148">
         <v>98.39</v>
       </c>
-      <c r="F148">
-        <f t="shared" si="2"/>
-        <v>2.5964546402502453</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>175</v>
       </c>
@@ -18468,12 +17928,8 @@
       <c r="E149">
         <v>98.56</v>
       </c>
-      <c r="F149">
-        <f t="shared" si="2"/>
-        <v>2.4106400665004246</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>176</v>
       </c>
@@ -18489,12 +17945,8 @@
       <c r="E150">
         <v>98.51</v>
       </c>
-      <c r="F150">
-        <f t="shared" si="2"/>
-        <v>2.2842903125324554</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>177</v>
       </c>
@@ -18510,12 +17962,8 @@
       <c r="E151">
         <v>98.56</v>
       </c>
-      <c r="F151">
-        <f t="shared" si="2"/>
-        <v>2.2512708787218561</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>178</v>
       </c>
@@ -18531,12 +17979,8 @@
       <c r="E152">
         <v>98.05</v>
       </c>
-      <c r="F152">
-        <f t="shared" si="2"/>
-        <v>2.2312584714836881</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>179</v>
       </c>
@@ -18552,12 +17996,8 @@
       <c r="E153">
         <v>98.76</v>
       </c>
-      <c r="F153">
-        <f t="shared" si="2"/>
-        <v>2.3844080447854132</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>180</v>
       </c>
@@ -18573,12 +18013,8 @@
       <c r="E154">
         <v>98.51</v>
       </c>
-      <c r="F154">
-        <f t="shared" si="2"/>
-        <v>2.1570050814061936</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -18594,12 +18030,8 @@
       <c r="E155">
         <v>98.71</v>
       </c>
-      <c r="F155">
-        <f t="shared" si="2"/>
-        <v>2.0891508946116355</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>182</v>
       </c>
@@ -18615,12 +18047,8 @@
       <c r="E156">
         <v>98.54</v>
       </c>
-      <c r="F156">
-        <f t="shared" si="2"/>
-        <v>1.5981028972058997</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>183</v>
       </c>
@@ -18636,12 +18064,8 @@
       <c r="E157">
         <v>98.9</v>
       </c>
-      <c r="F157">
-        <f t="shared" si="2"/>
-        <v>1.5296170824350863</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>184</v>
       </c>
@@ -18657,12 +18081,8 @@
       <c r="E158">
         <v>98.34</v>
       </c>
-      <c r="F158">
-        <f t="shared" si="2"/>
-        <v>1.3500979078635567</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>185</v>
       </c>
@@ -18678,12 +18098,8 @@
       <c r="E159">
         <v>98.65</v>
       </c>
-      <c r="F159">
-        <f t="shared" si="2"/>
-        <v>1.1898656272438357</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>186</v>
       </c>
@@ -18699,12 +18115,8 @@
       <c r="E160">
         <v>99.46</v>
       </c>
-      <c r="F160">
-        <f t="shared" si="2"/>
-        <v>1.0875088931801891</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>187</v>
       </c>
@@ -18720,12 +18132,8 @@
       <c r="E161">
         <v>99.35</v>
       </c>
-      <c r="F161">
-        <f t="shared" si="2"/>
-        <v>0.8015422077922052</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>188</v>
       </c>
@@ -18741,12 +18149,8 @@
       <c r="E162">
         <v>99.39</v>
       </c>
-      <c r="F162">
-        <f t="shared" si="2"/>
-        <v>0.89331032382498066</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>189</v>
       </c>
@@ -18762,12 +18166,8 @@
       <c r="E163">
         <v>99.57</v>
       </c>
-      <c r="F163">
-        <f t="shared" si="2"/>
-        <v>1.0247564935064846</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>190</v>
       </c>
@@ -18783,12 +18183,8 @@
       <c r="E164">
         <v>99.22</v>
       </c>
-      <c r="F164">
-        <f t="shared" si="2"/>
-        <v>1.1932687404385467</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>191</v>
       </c>
@@ -18804,12 +18200,8 @@
       <c r="E165">
         <v>99.72</v>
       </c>
-      <c r="F165">
-        <f t="shared" si="2"/>
-        <v>0.97205346294044759</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>192</v>
       </c>
@@ -18825,12 +18217,8 @@
       <c r="E166">
         <v>99.52</v>
       </c>
-      <c r="F166">
-        <f t="shared" si="2"/>
-        <v>1.0252766216627629</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>193</v>
       </c>
@@ -18846,12 +18234,8 @@
       <c r="E167">
         <v>99.39</v>
       </c>
-      <c r="F167">
-        <f t="shared" si="2"/>
-        <v>0.68888663762536329</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>194</v>
       </c>
@@ -18867,12 +18251,8 @@
       <c r="E168">
         <v>99.35</v>
       </c>
-      <c r="F168">
-        <f t="shared" si="2"/>
-        <v>0.82200121777957769</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>195</v>
       </c>
@@ -18888,12 +18268,8 @@
       <c r="E169">
         <v>99.73</v>
       </c>
-      <c r="F169">
-        <f t="shared" si="2"/>
-        <v>0.83923154701719405</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>196</v>
       </c>
@@ -18909,12 +18285,8 @@
       <c r="E170">
         <v>99.09</v>
       </c>
-      <c r="F170">
-        <f t="shared" si="2"/>
-        <v>0.76266015863331038</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>197</v>
       </c>
@@ -18930,12 +18302,8 @@
       <c r="E171">
         <v>99.7</v>
       </c>
-      <c r="F171">
-        <f t="shared" si="2"/>
-        <v>1.0643689812468216</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>198</v>
       </c>
@@ -18951,12 +18319,8 @@
       <c r="E172">
         <v>100.21</v>
       </c>
-      <c r="F172">
-        <f t="shared" si="2"/>
-        <v>0.75407198873920223</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>199</v>
       </c>
@@ -18972,12 +18336,8 @@
       <c r="E173">
         <v>100.18</v>
       </c>
-      <c r="F173">
-        <f t="shared" si="2"/>
-        <v>0.83543029693005089</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>200</v>
       </c>
@@ -18993,12 +18353,8 @@
       <c r="E174">
         <v>100.21</v>
       </c>
-      <c r="F174">
-        <f t="shared" si="2"/>
-        <v>0.8250326994667434</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>201</v>
       </c>
@@ -19014,12 +18370,8 @@
       <c r="E175">
         <v>100.16</v>
       </c>
-      <c r="F175">
-        <f t="shared" si="2"/>
-        <v>0.59254795621170864</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>202</v>
       </c>
@@ -19035,12 +18387,8 @@
       <c r="E176">
         <v>99.78</v>
       </c>
-      <c r="F176">
-        <f t="shared" si="2"/>
-        <v>0.56440233823826791</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>203</v>
       </c>
@@ -19056,12 +18404,8 @@
       <c r="E177">
         <v>100.26</v>
       </c>
-      <c r="F177">
-        <f t="shared" si="2"/>
-        <v>0.54151624548737232</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>204</v>
       </c>
@@ -19077,12 +18421,8 @@
       <c r="E178">
         <v>99.89</v>
       </c>
-      <c r="F178">
-        <f t="shared" si="2"/>
-        <v>0.37178456591639986</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>205</v>
       </c>
@@ -19098,12 +18438,8 @@
       <c r="E179">
         <v>99.92</v>
       </c>
-      <c r="F179">
-        <f t="shared" si="2"/>
-        <v>0.53325284233827208</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>206</v>
       </c>
@@ -19119,12 +18455,8 @@
       <c r="E180">
         <v>99.75</v>
       </c>
-      <c r="F180">
-        <f t="shared" si="2"/>
-        <v>0.40261701056869548</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>207</v>
       </c>
@@ -19140,12 +18472,8 @@
       <c r="E181">
         <v>99.82</v>
       </c>
-      <c r="F181">
-        <f t="shared" si="2"/>
-        <v>9.0243657876265537E-2</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>208</v>
       </c>
@@ -19161,12 +18489,8 @@
       <c r="E182">
         <v>98.7</v>
       </c>
-      <c r="F182">
-        <f t="shared" si="2"/>
-        <v>-0.39358159249167635</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>209</v>
       </c>
@@ -19182,12 +18506,8 @@
       <c r="E183">
         <v>99.42</v>
       </c>
-      <c r="F183">
-        <f t="shared" si="2"/>
-        <v>-0.28084252758274753</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>210</v>
       </c>
@@ -19203,12 +18523,8 @@
       <c r="E184">
         <v>100.17</v>
       </c>
-      <c r="F184">
-        <f t="shared" si="2"/>
-        <v>-3.9916176030330153E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>211</v>
       </c>
@@ -19224,12 +18540,8 @@
       <c r="E185">
         <v>100.3</v>
       </c>
-      <c r="F185">
-        <f t="shared" si="2"/>
-        <v>0.11978438810140712</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>212</v>
       </c>
@@ -19245,12 +18557,8 @@
       <c r="E186">
         <v>100.56</v>
       </c>
-      <c r="F186">
-        <f t="shared" si="2"/>
-        <v>0.34926654026545823</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>213</v>
       </c>
@@ -19266,12 +18574,8 @@
       <c r="E187">
         <v>100.49</v>
       </c>
-      <c r="F187">
-        <f t="shared" si="2"/>
-        <v>0.32947284345048455</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>214</v>
       </c>
@@ -19287,12 +18591,8 @@
       <c r="E188">
         <v>100</v>
       </c>
-      <c r="F188">
-        <f t="shared" si="2"/>
-        <v>0.22048506714771321</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>215</v>
       </c>
@@ -19308,12 +18608,8 @@
       <c r="E189">
         <v>100.36</v>
       </c>
-      <c r="F189">
-        <f t="shared" si="2"/>
-        <v>9.974067424696198E-2</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>216</v>
       </c>
@@ -19329,12 +18625,8 @@
       <c r="E190">
         <v>99.99</v>
       </c>
-      <c r="F190">
-        <f t="shared" si="2"/>
-        <v>0.10011012113324558</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>217</v>
       </c>
@@ -19350,12 +18642,8 @@
       <c r="E191">
         <v>100.07</v>
       </c>
-      <c r="F191">
-        <f t="shared" si="2"/>
-        <v>0.15012009607684451</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>218</v>
       </c>
@@ -19371,12 +18659,8 @@
       <c r="E192">
         <v>99.86</v>
       </c>
-      <c r="F192">
-        <f t="shared" si="2"/>
-        <v>0.11027568922306052</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>219</v>
       </c>
@@ -19392,12 +18676,8 @@
       <c r="E193">
         <v>100.09</v>
       </c>
-      <c r="F193">
-        <f t="shared" si="2"/>
-        <v>0.27048687637749591</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>220</v>
       </c>
@@ -19413,12 +18693,8 @@
       <c r="E194">
         <v>99.02</v>
       </c>
-      <c r="F194">
-        <f t="shared" si="2"/>
-        <v>0.32421479229989281</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>221</v>
       </c>
@@ -19434,12 +18710,8 @@
       <c r="E195">
         <v>99.31</v>
       </c>
-      <c r="F195">
-        <f t="shared" si="2"/>
-        <v>-0.11064172198752553</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>222</v>
       </c>
@@ -19455,12 +18727,8 @@
       <c r="E196">
         <v>100.09</v>
       </c>
-      <c r="F196">
-        <f t="shared" si="2"/>
-        <v>-7.9864230807624725E-2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>223</v>
       </c>
@@ -19476,12 +18744,8 @@
       <c r="E197">
         <v>100.18</v>
       </c>
-      <c r="F197">
-        <f t="shared" si="2"/>
-        <v>-0.11964107676968316</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>224</v>
       </c>
@@ -19497,12 +18761,8 @@
       <c r="E198">
         <v>100.65</v>
       </c>
-      <c r="F198">
-        <f t="shared" si="2"/>
-        <v>8.9498806682586363E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>225</v>
       </c>
@@ -19518,12 +18778,8 @@
       <c r="E199">
         <v>100.8</v>
       </c>
-      <c r="F199">
-        <f t="shared" si="2"/>
-        <v>0.30848840680663958</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>226</v>
       </c>
@@ -19539,12 +18795,8 @@
       <c r="E200">
         <v>100.39</v>
       </c>
-      <c r="F200">
-        <f t="shared" si="2"/>
-        <v>0.39000000000000146</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>227</v>
       </c>
@@ -19560,12 +18812,8 @@
       <c r="E201">
         <v>100.74</v>
       </c>
-      <c r="F201">
-        <f t="shared" si="2"/>
-        <v>0.37863690713431097</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>228</v>
       </c>
@@ -19581,12 +18829,8 @@
       <c r="E202">
         <v>100.5</v>
       </c>
-      <c r="F202">
-        <f t="shared" si="2"/>
-        <v>0.51005100510050916</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>229</v>
       </c>
@@ -19602,12 +18846,8 @@
       <c r="E203">
         <v>100.54</v>
       </c>
-      <c r="F203">
-        <f t="shared" si="2"/>
-        <v>0.46967123013892387</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>230</v>
       </c>
@@ -19623,12 +18863,8 @@
       <c r="E204">
         <v>100.55</v>
       </c>
-      <c r="F204">
-        <f t="shared" si="2"/>
-        <v>0.69096735429601264</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>231</v>
       </c>
@@ -19644,12 +18880,8 @@
       <c r="E205">
         <v>100.9</v>
       </c>
-      <c r="F205">
-        <f t="shared" si="2"/>
-        <v>0.80927165551003544</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>232</v>
       </c>
@@ -19665,12 +18897,8 @@
       <c r="E206">
         <v>100.57</v>
       </c>
-      <c r="F206">
-        <f t="shared" si="2"/>
-        <v>1.565340335285792</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>233</v>
       </c>
@@ -19686,12 +18914,8 @@
       <c r="E207">
         <v>100.73</v>
       </c>
-      <c r="F207">
-        <f t="shared" ref="F207:F270" si="3">100*(E207/E195-1)</f>
-        <v>1.4298660759238802</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>234</v>
       </c>
@@ -19707,12 +18931,8 @@
       <c r="E208">
         <v>101.47</v>
       </c>
-      <c r="F208">
-        <f t="shared" si="3"/>
-        <v>1.3787591167948809</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>235</v>
       </c>
@@ -19728,12 +18948,8 @@
       <c r="E209">
         <v>101.57</v>
       </c>
-      <c r="F209">
-        <f t="shared" si="3"/>
-        <v>1.387502495508075</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>236</v>
       </c>
@@ -19749,12 +18965,8 @@
       <c r="E210">
         <v>101.59</v>
       </c>
-      <c r="F210">
-        <f t="shared" si="3"/>
-        <v>0.93392945851962228</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>237</v>
       </c>
@@ -19770,12 +18982,8 @@
       <c r="E211">
         <v>101.58</v>
       </c>
-      <c r="F211">
-        <f t="shared" si="3"/>
-        <v>0.77380952380952106</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>238</v>
       </c>
@@ -19791,12 +18999,8 @@
       <c r="E212">
         <v>101.17</v>
       </c>
-      <c r="F212">
-        <f t="shared" si="3"/>
-        <v>0.77696981771093743</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>239</v>
       </c>
@@ -19812,12 +19016,8 @@
       <c r="E213">
         <v>101.74</v>
       </c>
-      <c r="F213">
-        <f t="shared" si="3"/>
-        <v>0.99265435775262034</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>240</v>
       </c>
@@ -19833,12 +19033,8 @@
       <c r="E214">
         <v>101.58</v>
       </c>
-      <c r="F214">
-        <f t="shared" si="3"/>
-        <v>1.0746268656716351</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>241</v>
       </c>
@@ -19854,12 +19050,8 @@
       <c r="E215">
         <v>101.7</v>
       </c>
-      <c r="F215">
-        <f t="shared" si="3"/>
-        <v>1.1537696439228196</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>242</v>
       </c>
@@ -19875,12 +19067,8 @@
       <c r="E216">
         <v>101.8</v>
       </c>
-      <c r="F216">
-        <f t="shared" si="3"/>
-        <v>1.2431626056688128</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>243</v>
       </c>
@@ -19896,12 +19084,8 @@
       <c r="E217">
         <v>102.16</v>
       </c>
-      <c r="F217">
-        <f t="shared" si="3"/>
-        <v>1.2487611496531104</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>244</v>
       </c>
@@ -19917,12 +19101,8 @@
       <c r="E218">
         <v>102.06</v>
       </c>
-      <c r="F218">
-        <f t="shared" si="3"/>
-        <v>1.4815551357263645</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>245</v>
       </c>
@@ -19938,12 +19118,8 @@
       <c r="E219">
         <v>102.05</v>
       </c>
-      <c r="F219">
-        <f t="shared" si="3"/>
-        <v>1.3104338330189647</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>246</v>
       </c>
@@ -19959,12 +19135,8 @@
       <c r="E220">
         <v>103.22</v>
       </c>
-      <c r="F220">
-        <f t="shared" si="3"/>
-        <v>1.7246476791169751</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>247</v>
       </c>
@@ -19980,12 +19152,8 @@
       <c r="E221">
         <v>103.43</v>
       </c>
-      <c r="F221">
-        <f t="shared" si="3"/>
-        <v>1.831249384660838</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>248</v>
       </c>
@@ -20001,12 +19169,8 @@
       <c r="E222">
         <v>103.92</v>
       </c>
-      <c r="F222">
-        <f t="shared" si="3"/>
-        <v>2.2935328280342615</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>249</v>
       </c>
@@ -20022,12 +19186,8 @@
       <c r="E223">
         <v>103.93</v>
       </c>
-      <c r="F223">
-        <f t="shared" si="3"/>
-        <v>2.3134475290411682</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>250</v>
       </c>
@@ -20043,12 +19203,8 @@
       <c r="E224">
         <v>103.8</v>
       </c>
-      <c r="F224">
-        <f t="shared" si="3"/>
-        <v>2.5995848571710889</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>251</v>
       </c>
@@ -20064,12 +19220,8 @@
       <c r="E225">
         <v>104.35</v>
       </c>
-      <c r="F225">
-        <f t="shared" si="3"/>
-        <v>2.5653626892077952</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>252</v>
       </c>
@@ -20085,12 +19237,8 @@
       <c r="E226">
         <v>104.12</v>
       </c>
-      <c r="F226">
-        <f t="shared" si="3"/>
-        <v>2.5004922228785365</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>253</v>
       </c>
@@ -20106,12 +19254,8 @@
       <c r="E227">
         <v>104.24</v>
       </c>
-      <c r="F227">
-        <f t="shared" si="3"/>
-        <v>2.4975417895771734</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>254</v>
       </c>
@@ -20127,12 +19271,8 @@
       <c r="E228">
         <v>104</v>
       </c>
-      <c r="F228">
-        <f t="shared" si="3"/>
-        <v>2.16110019646365</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>255</v>
       </c>
@@ -20148,12 +19288,8 @@
       <c r="E229">
         <v>104.1</v>
       </c>
-      <c r="F229">
-        <f t="shared" si="3"/>
-        <v>1.8989819890367965</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>256</v>
       </c>
@@ -20169,12 +19305,8 @@
       <c r="E230">
         <v>103.52</v>
       </c>
-      <c r="F230">
-        <f t="shared" si="3"/>
-        <v>1.4305310601606891</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>257</v>
       </c>
@@ -20190,12 +19322,8 @@
       <c r="E231">
         <v>103.64</v>
       </c>
-      <c r="F231">
-        <f t="shared" si="3"/>
-        <v>1.5580597746202907</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>258</v>
       </c>
@@ -20211,12 +19339,8 @@
       <c r="E232">
         <v>104.55</v>
       </c>
-      <c r="F232">
-        <f t="shared" si="3"/>
-        <v>1.288509978686303</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>259</v>
       </c>
@@ -20232,12 +19356,8 @@
       <c r="E233">
         <v>104.93</v>
       </c>
-      <c r="F233">
-        <f t="shared" si="3"/>
-        <v>1.4502562119307782</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>260</v>
       </c>
@@ -20253,12 +19373,8 @@
       <c r="E234">
         <v>105.06</v>
       </c>
-      <c r="F234">
-        <f t="shared" si="3"/>
-        <v>1.0969976905311762</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>261</v>
       </c>
@@ -20274,12 +19390,8 @@
       <c r="E235">
         <v>105.35</v>
       </c>
-      <c r="F235">
-        <f t="shared" si="3"/>
-        <v>1.3663042432406236</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -20295,12 +19407,8 @@
       <c r="E236">
         <v>105.11</v>
       </c>
-      <c r="F236">
-        <f t="shared" si="3"/>
-        <v>1.2620423892100163</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>263</v>
       </c>
@@ -20316,12 +19424,8 @@
       <c r="E237">
         <v>105.67</v>
       </c>
-      <c r="F237">
-        <f t="shared" si="3"/>
-        <v>1.2649736463823835</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>264</v>
       </c>
@@ -20337,12 +19441,8 @@
       <c r="E238">
         <v>105.28</v>
       </c>
-      <c r="F238">
-        <f t="shared" si="3"/>
-        <v>1.1140991164041436</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>265</v>
       </c>
@@ -20358,12 +19458,8 @@
       <c r="E239">
         <v>105.2</v>
       </c>
-      <c r="F239">
-        <f t="shared" si="3"/>
-        <v>0.92095165003838186</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>266</v>
       </c>
@@ -20379,12 +19475,8 @@
       <c r="E240">
         <v>105.27</v>
       </c>
-      <c r="F240">
-        <f t="shared" si="3"/>
-        <v>1.221153846153844</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>267</v>
       </c>
@@ -20400,12 +19492,8 @@
       <c r="E241">
         <v>105.78</v>
       </c>
-      <c r="F241">
-        <f t="shared" si="3"/>
-        <v>1.6138328530259427</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>268</v>
       </c>
@@ -20421,12 +19509,8 @@
       <c r="E242">
         <v>105.24</v>
       </c>
-      <c r="F242">
-        <f t="shared" si="3"/>
-        <v>1.6615146831530092</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>269</v>
       </c>
@@ -20442,12 +19526,8 @@
       <c r="E243">
         <v>105.27</v>
       </c>
-      <c r="F243">
-        <f t="shared" si="3"/>
-        <v>1.5727518332689927</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>270</v>
       </c>
@@ -20463,12 +19543,8 @@
       <c r="E244">
         <v>105.34</v>
       </c>
-      <c r="F244">
-        <f t="shared" si="3"/>
-        <v>0.75561932089909245</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>271</v>
       </c>
@@ -20484,12 +19560,8 @@
       <c r="E245">
         <v>105.32</v>
       </c>
-      <c r="F245">
-        <f t="shared" si="3"/>
-        <v>0.37167635566566215</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>272</v>
       </c>
@@ -20505,12 +19577,8 @@
       <c r="E246">
         <v>105.49</v>
       </c>
-      <c r="F246">
-        <f t="shared" si="3"/>
-        <v>0.40928992956406063</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>273</v>
       </c>
@@ -20526,12 +19594,8 @@
       <c r="E247">
         <v>105.58</v>
       </c>
-      <c r="F247">
-        <f t="shared" si="3"/>
-        <v>0.21831988609397612</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>274</v>
       </c>
@@ -20547,12 +19611,8 @@
       <c r="E248">
         <v>106.01</v>
       </c>
-      <c r="F248">
-        <f t="shared" si="3"/>
-        <v>0.85624583769385865</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>275</v>
       </c>
@@ -20568,12 +19628,8 @@
       <c r="E249">
         <v>105.89</v>
       </c>
-      <c r="F249">
-        <f t="shared" si="3"/>
-        <v>0.20819532506861638</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>276</v>
       </c>
@@ -20589,12 +19645,8 @@
       <c r="E250">
         <v>105.3</v>
       </c>
-      <c r="F250">
-        <f t="shared" si="3"/>
-        <v>1.8996960486328263E-2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>277</v>
       </c>
@@ -20610,12 +19662,8 @@
       <c r="E251">
         <v>105.27</v>
       </c>
-      <c r="F251">
-        <f t="shared" si="3"/>
-        <v>6.6539923954356262E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>278</v>
       </c>
@@ -20631,12 +19679,8 @@
       <c r="E252">
         <v>105.5</v>
       </c>
-      <c r="F252">
-        <f t="shared" si="3"/>
-        <v>0.2184857984230959</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>279</v>
       </c>
@@ -20652,12 +19696,8 @@
       <c r="E253">
         <v>105.75</v>
       </c>
-      <c r="F253">
-        <f t="shared" si="3"/>
-        <v>-2.8360748723765816E-2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>280</v>
       </c>
@@ -20673,12 +19713,8 @@
       <c r="E254">
         <v>106.03</v>
       </c>
-      <c r="F254">
-        <f t="shared" si="3"/>
-        <v>0.75066514633219672</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>281</v>
       </c>
@@ -20694,12 +19730,8 @@
       <c r="E255">
         <v>106.07</v>
       </c>
-      <c r="F255">
-        <f t="shared" si="3"/>
-        <v>0.75995060321079055</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>282</v>
       </c>
@@ -20715,12 +19747,8 @@
       <c r="E256">
         <v>106.8</v>
       </c>
-      <c r="F256">
-        <f t="shared" si="3"/>
-        <v>1.3859882285931269</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>283</v>
       </c>
@@ -20736,12 +19764,8 @@
       <c r="E257">
         <v>107.02</v>
       </c>
-      <c r="F257">
-        <f t="shared" si="3"/>
-        <v>1.6141283706798459</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>284</v>
       </c>
@@ -20757,12 +19781,8 @@
       <c r="E258">
         <v>107.38</v>
       </c>
-      <c r="F258">
-        <f t="shared" si="3"/>
-        <v>1.791639017916391</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>285</v>
       </c>
@@ -20778,12 +19798,8 @@
       <c r="E259">
         <v>107.57</v>
       </c>
-      <c r="F259">
-        <f t="shared" si="3"/>
-        <v>1.8848266717181206</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>286</v>
       </c>
@@ -20799,12 +19815,8 @@
       <c r="E260">
         <v>107.64</v>
       </c>
-      <c r="F260">
-        <f t="shared" si="3"/>
-        <v>1.5375907933213862</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>287</v>
       </c>
@@ -20820,12 +19832,8 @@
       <c r="E261">
         <v>108.38</v>
       </c>
-      <c r="F261">
-        <f t="shared" si="3"/>
-        <v>2.3514968363395949</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>288</v>
       </c>
@@ -20841,12 +19849,8 @@
       <c r="E262">
         <v>108.16</v>
       </c>
-      <c r="F262">
-        <f t="shared" si="3"/>
-        <v>2.716049382716057</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>289</v>
       </c>
@@ -20862,12 +19866,8 @@
       <c r="E263">
         <v>108.64</v>
       </c>
-      <c r="F263">
-        <f t="shared" si="3"/>
-        <v>3.2012919160254727</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>290</v>
       </c>
@@ -20883,12 +19883,8 @@
       <c r="E264">
         <v>109.09</v>
       </c>
-      <c r="F264">
-        <f t="shared" si="3"/>
-        <v>3.4028436018957331</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>291</v>
       </c>
@@ -20904,12 +19900,8 @@
       <c r="E265">
         <v>109.34</v>
       </c>
-      <c r="F265">
-        <f t="shared" si="3"/>
-        <v>3.3947990543735207</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>292</v>
       </c>
@@ -20925,12 +19917,8 @@
       <c r="E266">
         <v>109.51</v>
       </c>
-      <c r="F266">
-        <f t="shared" si="3"/>
-        <v>3.2820899745355181</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -20946,12 +19934,8 @@
       <c r="E267">
         <v>110.49</v>
       </c>
-      <c r="F267">
-        <f t="shared" si="3"/>
-        <v>4.1670594890166779</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>294</v>
       </c>
@@ -20967,12 +19951,8 @@
       <c r="E268">
         <v>112.26</v>
       </c>
-      <c r="F268">
-        <f t="shared" si="3"/>
-        <v>5.1123595505617958</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>295</v>
       </c>
@@ -20988,12 +19968,8 @@
       <c r="E269">
         <v>112.78</v>
       </c>
-      <c r="F269">
-        <f t="shared" si="3"/>
-        <v>5.3821715567183848</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>296</v>
       </c>
@@ -21009,12 +19985,8 @@
       <c r="E270">
         <v>113.63</v>
       </c>
-      <c r="F270">
-        <f t="shared" si="3"/>
-        <v>5.8204507357049629</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>297</v>
       </c>
@@ -21030,12 +20002,8 @@
       <c r="E271">
         <v>114.6</v>
       </c>
-      <c r="F271">
-        <f t="shared" ref="F271:F288" si="4">100*(E271/E259-1)</f>
-        <v>6.5352793529794617</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>298</v>
       </c>
@@ -21051,12 +20019,8 @@
       <c r="E272">
         <v>114.94</v>
       </c>
-      <c r="F272">
-        <f t="shared" si="4"/>
-        <v>6.7818654775176457</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>299</v>
       </c>
@@ -21072,12 +20036,8 @@
       <c r="E273">
         <v>115.49</v>
       </c>
-      <c r="F273">
-        <f t="shared" si="4"/>
-        <v>6.5602509688134303</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>300</v>
       </c>
@@ -21093,12 +20053,8 @@
       <c r="E274">
         <v>114.9</v>
       </c>
-      <c r="F274">
-        <f t="shared" si="4"/>
-        <v>6.2315088757396442</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>301</v>
       </c>
@@ -21114,12 +20070,8 @@
       <c r="E275">
         <v>116.32</v>
       </c>
-      <c r="F275">
-        <f t="shared" si="4"/>
-        <v>7.0692194403534581</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>302</v>
       </c>
@@ -21135,12 +20087,8 @@
       <c r="E276">
         <v>116.81</v>
       </c>
-      <c r="F276">
-        <f t="shared" si="4"/>
-        <v>7.0767256393803324</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>303</v>
       </c>
@@ -21156,12 +20104,8 @@
       <c r="E277">
         <v>116.7</v>
       </c>
-      <c r="F277">
-        <f t="shared" si="4"/>
-        <v>6.7312968721419342</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>304</v>
       </c>
@@ -21177,12 +20121,8 @@
       <c r="E278">
         <v>117.22</v>
       </c>
-      <c r="F278">
-        <f t="shared" si="4"/>
-        <v>7.0404529266733462</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>305</v>
       </c>
@@ -21198,12 +20138,8 @@
       <c r="E279">
         <v>118.55</v>
       </c>
-      <c r="F279">
-        <f t="shared" si="4"/>
-        <v>7.2947778079464287</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>306</v>
       </c>
@@ -21219,12 +20155,8 @@
       <c r="E280">
         <v>119.76</v>
       </c>
-      <c r="F280">
-        <f t="shared" si="4"/>
-        <v>6.6809192944949247</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>307</v>
       </c>
@@ -21240,12 +20172,8 @@
       <c r="E281">
         <v>120.55</v>
       </c>
-      <c r="F281">
-        <f t="shared" si="4"/>
-        <v>6.889519418336576</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>308</v>
       </c>
@@ -21261,12 +20189,8 @@
       <c r="E282">
         <v>120.46</v>
       </c>
-      <c r="F282">
-        <f t="shared" si="4"/>
-        <v>6.0107366012496666</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>309</v>
       </c>
@@ -21282,12 +20206,8 @@
       <c r="E283">
         <v>120.71</v>
       </c>
-      <c r="F283">
-        <f t="shared" si="4"/>
-        <v>5.3315881326352565</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>310</v>
       </c>
@@ -21303,12 +20223,8 @@
       <c r="E284">
         <v>120.77</v>
       </c>
-      <c r="F284">
-        <f t="shared" si="4"/>
-        <v>5.0722115886549402</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>311</v>
       </c>
@@ -21324,12 +20240,8 @@
       <c r="E285">
         <v>122.1</v>
       </c>
-      <c r="F285">
-        <f t="shared" si="4"/>
-        <v>5.7234392588102923</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>312</v>
       </c>
@@ -21345,12 +20257,8 @@
       <c r="E286">
         <v>121.4</v>
       </c>
-      <c r="F286">
-        <f t="shared" si="4"/>
-        <v>5.6570931244560585</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>313</v>
       </c>
@@ -21366,12 +20274,8 @@
       <c r="E287">
         <v>121.61</v>
       </c>
-      <c r="F287">
-        <f t="shared" si="4"/>
-        <v>4.5477991746905255</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>314</v>
       </c>
@@ -21386,10 +20290,6 @@
       </c>
       <c r="E288">
         <v>121.27</v>
-      </c>
-      <c r="F288">
-        <f t="shared" si="4"/>
-        <v>3.8181662528893101</v>
       </c>
     </row>
   </sheetData>

--- a/main/data/overall_hicp.xlsx
+++ b/main/data/overall_hicp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prld/git/SVAR3A/main/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB0DE4C-43C6-A74C-BE41-3CBB74C34E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60265ED-BA5E-B545-B6B8-AE348344FE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15091,6 +15091,276 @@
     </row>
   </sheetData>
   <mergeCells count="287">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="AB9:AC9"/>
+    <mergeCell ref="AD9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AJ9:AK9"/>
+    <mergeCell ref="AL9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AT9:AU9"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:AY9"/>
+    <mergeCell ref="AZ9:BA9"/>
+    <mergeCell ref="BB9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BG9"/>
+    <mergeCell ref="BH9:BI9"/>
+    <mergeCell ref="BJ9:BK9"/>
+    <mergeCell ref="BL9:BM9"/>
+    <mergeCell ref="BN9:BO9"/>
+    <mergeCell ref="BP9:BQ9"/>
+    <mergeCell ref="BR9:BS9"/>
+    <mergeCell ref="BT9:BU9"/>
+    <mergeCell ref="BV9:BW9"/>
+    <mergeCell ref="BX9:BY9"/>
+    <mergeCell ref="BZ9:CA9"/>
+    <mergeCell ref="CB9:CC9"/>
+    <mergeCell ref="CD9:CE9"/>
+    <mergeCell ref="CF9:CG9"/>
+    <mergeCell ref="CH9:CI9"/>
+    <mergeCell ref="CJ9:CK9"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CN9:CO9"/>
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CR9:CS9"/>
+    <mergeCell ref="CT9:CU9"/>
+    <mergeCell ref="CV9:CW9"/>
+    <mergeCell ref="CX9:CY9"/>
+    <mergeCell ref="CZ9:DA9"/>
+    <mergeCell ref="DB9:DC9"/>
+    <mergeCell ref="DD9:DE9"/>
+    <mergeCell ref="DF9:DG9"/>
+    <mergeCell ref="DH9:DI9"/>
+    <mergeCell ref="DJ9:DK9"/>
+    <mergeCell ref="DL9:DM9"/>
+    <mergeCell ref="DN9:DO9"/>
+    <mergeCell ref="DP9:DQ9"/>
+    <mergeCell ref="DR9:DS9"/>
+    <mergeCell ref="DT9:DU9"/>
+    <mergeCell ref="DV9:DW9"/>
+    <mergeCell ref="DX9:DY9"/>
+    <mergeCell ref="DZ9:EA9"/>
+    <mergeCell ref="EB9:EC9"/>
+    <mergeCell ref="ED9:EE9"/>
+    <mergeCell ref="EF9:EG9"/>
+    <mergeCell ref="EH9:EI9"/>
+    <mergeCell ref="EJ9:EK9"/>
+    <mergeCell ref="EL9:EM9"/>
+    <mergeCell ref="EN9:EO9"/>
+    <mergeCell ref="EP9:EQ9"/>
+    <mergeCell ref="ER9:ES9"/>
+    <mergeCell ref="ET9:EU9"/>
+    <mergeCell ref="EV9:EW9"/>
+    <mergeCell ref="EX9:EY9"/>
+    <mergeCell ref="EZ9:FA9"/>
+    <mergeCell ref="FB9:FC9"/>
+    <mergeCell ref="FD9:FE9"/>
+    <mergeCell ref="FF9:FG9"/>
+    <mergeCell ref="FH9:FI9"/>
+    <mergeCell ref="FJ9:FK9"/>
+    <mergeCell ref="FL9:FM9"/>
+    <mergeCell ref="FN9:FO9"/>
+    <mergeCell ref="FP9:FQ9"/>
+    <mergeCell ref="FR9:FS9"/>
+    <mergeCell ref="FT9:FU9"/>
+    <mergeCell ref="FV9:FW9"/>
+    <mergeCell ref="FX9:FY9"/>
+    <mergeCell ref="FZ9:GA9"/>
+    <mergeCell ref="GB9:GC9"/>
+    <mergeCell ref="GD9:GE9"/>
+    <mergeCell ref="GF9:GG9"/>
+    <mergeCell ref="GH9:GI9"/>
+    <mergeCell ref="GJ9:GK9"/>
+    <mergeCell ref="GL9:GM9"/>
+    <mergeCell ref="GN9:GO9"/>
+    <mergeCell ref="GP9:GQ9"/>
+    <mergeCell ref="GR9:GS9"/>
+    <mergeCell ref="GT9:GU9"/>
+    <mergeCell ref="GV9:GW9"/>
+    <mergeCell ref="GX9:GY9"/>
+    <mergeCell ref="GZ9:HA9"/>
+    <mergeCell ref="HB9:HC9"/>
+    <mergeCell ref="HD9:HE9"/>
+    <mergeCell ref="HF9:HG9"/>
+    <mergeCell ref="HH9:HI9"/>
+    <mergeCell ref="HJ9:HK9"/>
+    <mergeCell ref="HL9:HM9"/>
+    <mergeCell ref="HN9:HO9"/>
+    <mergeCell ref="HP9:HQ9"/>
+    <mergeCell ref="HR9:HS9"/>
+    <mergeCell ref="HT9:HU9"/>
+    <mergeCell ref="HV9:HW9"/>
+    <mergeCell ref="HX9:HY9"/>
+    <mergeCell ref="HZ9:IA9"/>
+    <mergeCell ref="IB9:IC9"/>
+    <mergeCell ref="ID9:IE9"/>
+    <mergeCell ref="IF9:IG9"/>
+    <mergeCell ref="IH9:II9"/>
+    <mergeCell ref="IJ9:IK9"/>
+    <mergeCell ref="IL9:IM9"/>
+    <mergeCell ref="IN9:IO9"/>
+    <mergeCell ref="IP9:IQ9"/>
+    <mergeCell ref="IR9:IS9"/>
+    <mergeCell ref="IT9:IU9"/>
+    <mergeCell ref="IV9:IW9"/>
+    <mergeCell ref="IX9:IY9"/>
+    <mergeCell ref="IZ9:JA9"/>
+    <mergeCell ref="JB9:JC9"/>
+    <mergeCell ref="JD9:JE9"/>
+    <mergeCell ref="JF9:JG9"/>
+    <mergeCell ref="JH9:JI9"/>
+    <mergeCell ref="JJ9:JK9"/>
+    <mergeCell ref="JL9:JM9"/>
+    <mergeCell ref="JN9:JO9"/>
+    <mergeCell ref="JP9:JQ9"/>
+    <mergeCell ref="JR9:JS9"/>
+    <mergeCell ref="JT9:JU9"/>
+    <mergeCell ref="JV9:JW9"/>
+    <mergeCell ref="JX9:JY9"/>
+    <mergeCell ref="JZ9:KA9"/>
+    <mergeCell ref="KB9:KC9"/>
+    <mergeCell ref="KD9:KE9"/>
+    <mergeCell ref="KF9:KG9"/>
+    <mergeCell ref="KH9:KI9"/>
+    <mergeCell ref="KJ9:KK9"/>
+    <mergeCell ref="KL9:KM9"/>
+    <mergeCell ref="KN9:KO9"/>
+    <mergeCell ref="KP9:KQ9"/>
+    <mergeCell ref="KR9:KS9"/>
+    <mergeCell ref="KT9:KU9"/>
+    <mergeCell ref="KV9:KW9"/>
+    <mergeCell ref="KX9:KY9"/>
+    <mergeCell ref="KZ9:LA9"/>
+    <mergeCell ref="LB9:LC9"/>
+    <mergeCell ref="LD9:LE9"/>
+    <mergeCell ref="LF9:LG9"/>
+    <mergeCell ref="LH9:LI9"/>
+    <mergeCell ref="LJ9:LK9"/>
+    <mergeCell ref="LL9:LM9"/>
+    <mergeCell ref="LN9:LO9"/>
+    <mergeCell ref="LP9:LQ9"/>
+    <mergeCell ref="LR9:LS9"/>
+    <mergeCell ref="LT9:LU9"/>
+    <mergeCell ref="LV9:LW9"/>
+    <mergeCell ref="LX9:LY9"/>
+    <mergeCell ref="LZ9:MA9"/>
+    <mergeCell ref="MB9:MC9"/>
+    <mergeCell ref="MD9:ME9"/>
+    <mergeCell ref="MF9:MG9"/>
+    <mergeCell ref="MH9:MI9"/>
+    <mergeCell ref="MJ9:MK9"/>
+    <mergeCell ref="ML9:MM9"/>
+    <mergeCell ref="MN9:MO9"/>
+    <mergeCell ref="MP9:MQ9"/>
+    <mergeCell ref="MR9:MS9"/>
+    <mergeCell ref="MT9:MU9"/>
+    <mergeCell ref="MV9:MW9"/>
+    <mergeCell ref="MX9:MY9"/>
+    <mergeCell ref="MZ9:NA9"/>
+    <mergeCell ref="NB9:NC9"/>
+    <mergeCell ref="ND9:NE9"/>
+    <mergeCell ref="NF9:NG9"/>
+    <mergeCell ref="NH9:NI9"/>
+    <mergeCell ref="NJ9:NK9"/>
+    <mergeCell ref="NL9:NM9"/>
+    <mergeCell ref="NN9:NO9"/>
+    <mergeCell ref="NP9:NQ9"/>
+    <mergeCell ref="NR9:NS9"/>
+    <mergeCell ref="NT9:NU9"/>
+    <mergeCell ref="NV9:NW9"/>
+    <mergeCell ref="NX9:NY9"/>
+    <mergeCell ref="NZ9:OA9"/>
+    <mergeCell ref="OB9:OC9"/>
+    <mergeCell ref="OD9:OE9"/>
+    <mergeCell ref="OF9:OG9"/>
+    <mergeCell ref="OH9:OI9"/>
+    <mergeCell ref="OJ9:OK9"/>
+    <mergeCell ref="OL9:OM9"/>
+    <mergeCell ref="ON9:OO9"/>
+    <mergeCell ref="OP9:OQ9"/>
+    <mergeCell ref="OR9:OS9"/>
+    <mergeCell ref="OT9:OU9"/>
+    <mergeCell ref="OV9:OW9"/>
+    <mergeCell ref="OX9:OY9"/>
+    <mergeCell ref="OZ9:PA9"/>
+    <mergeCell ref="PB9:PC9"/>
+    <mergeCell ref="PD9:PE9"/>
+    <mergeCell ref="PF9:PG9"/>
+    <mergeCell ref="PH9:PI9"/>
+    <mergeCell ref="PJ9:PK9"/>
+    <mergeCell ref="PL9:PM9"/>
+    <mergeCell ref="PN9:PO9"/>
+    <mergeCell ref="PP9:PQ9"/>
+    <mergeCell ref="PR9:PS9"/>
+    <mergeCell ref="PT9:PU9"/>
+    <mergeCell ref="PV9:PW9"/>
+    <mergeCell ref="PX9:PY9"/>
+    <mergeCell ref="PZ9:QA9"/>
+    <mergeCell ref="QB9:QC9"/>
+    <mergeCell ref="QD9:QE9"/>
+    <mergeCell ref="QF9:QG9"/>
+    <mergeCell ref="QH9:QI9"/>
+    <mergeCell ref="QJ9:QK9"/>
+    <mergeCell ref="QL9:QM9"/>
+    <mergeCell ref="QN9:QO9"/>
+    <mergeCell ref="QP9:QQ9"/>
+    <mergeCell ref="QR9:QS9"/>
+    <mergeCell ref="QT9:QU9"/>
+    <mergeCell ref="QV9:QW9"/>
+    <mergeCell ref="QX9:QY9"/>
+    <mergeCell ref="QZ9:RA9"/>
+    <mergeCell ref="RB9:RC9"/>
+    <mergeCell ref="RD9:RE9"/>
+    <mergeCell ref="RF9:RG9"/>
+    <mergeCell ref="RH9:RI9"/>
+    <mergeCell ref="RJ9:RK9"/>
+    <mergeCell ref="RL9:RM9"/>
+    <mergeCell ref="RN9:RO9"/>
+    <mergeCell ref="RP9:RQ9"/>
+    <mergeCell ref="RR9:RS9"/>
+    <mergeCell ref="RT9:RU9"/>
+    <mergeCell ref="RV9:RW9"/>
+    <mergeCell ref="RX9:RY9"/>
+    <mergeCell ref="RZ9:SA9"/>
+    <mergeCell ref="SB9:SC9"/>
+    <mergeCell ref="SD9:SE9"/>
+    <mergeCell ref="SF9:SG9"/>
+    <mergeCell ref="SH9:SI9"/>
+    <mergeCell ref="SJ9:SK9"/>
+    <mergeCell ref="SL9:SM9"/>
+    <mergeCell ref="SN9:SO9"/>
+    <mergeCell ref="SP9:SQ9"/>
+    <mergeCell ref="SR9:SS9"/>
+    <mergeCell ref="ST9:SU9"/>
+    <mergeCell ref="SV9:SW9"/>
+    <mergeCell ref="SX9:SY9"/>
+    <mergeCell ref="SZ9:TA9"/>
+    <mergeCell ref="TB9:TC9"/>
+    <mergeCell ref="TD9:TE9"/>
+    <mergeCell ref="TF9:TG9"/>
+    <mergeCell ref="TH9:TI9"/>
+    <mergeCell ref="TJ9:TK9"/>
+    <mergeCell ref="TL9:TM9"/>
+    <mergeCell ref="TN9:TO9"/>
+    <mergeCell ref="TP9:TQ9"/>
+    <mergeCell ref="TR9:TS9"/>
+    <mergeCell ref="TT9:TU9"/>
     <mergeCell ref="UN9:UO9"/>
     <mergeCell ref="UP9:UQ9"/>
     <mergeCell ref="UR9:US9"/>
@@ -15108,276 +15378,6 @@
     <mergeCell ref="UH9:UI9"/>
     <mergeCell ref="UJ9:UK9"/>
     <mergeCell ref="UL9:UM9"/>
-    <mergeCell ref="TD9:TE9"/>
-    <mergeCell ref="TF9:TG9"/>
-    <mergeCell ref="TH9:TI9"/>
-    <mergeCell ref="TJ9:TK9"/>
-    <mergeCell ref="TL9:TM9"/>
-    <mergeCell ref="TN9:TO9"/>
-    <mergeCell ref="TP9:TQ9"/>
-    <mergeCell ref="TR9:TS9"/>
-    <mergeCell ref="TT9:TU9"/>
-    <mergeCell ref="SL9:SM9"/>
-    <mergeCell ref="SN9:SO9"/>
-    <mergeCell ref="SP9:SQ9"/>
-    <mergeCell ref="SR9:SS9"/>
-    <mergeCell ref="ST9:SU9"/>
-    <mergeCell ref="SV9:SW9"/>
-    <mergeCell ref="SX9:SY9"/>
-    <mergeCell ref="SZ9:TA9"/>
-    <mergeCell ref="TB9:TC9"/>
-    <mergeCell ref="RT9:RU9"/>
-    <mergeCell ref="RV9:RW9"/>
-    <mergeCell ref="RX9:RY9"/>
-    <mergeCell ref="RZ9:SA9"/>
-    <mergeCell ref="SB9:SC9"/>
-    <mergeCell ref="SD9:SE9"/>
-    <mergeCell ref="SF9:SG9"/>
-    <mergeCell ref="SH9:SI9"/>
-    <mergeCell ref="SJ9:SK9"/>
-    <mergeCell ref="RB9:RC9"/>
-    <mergeCell ref="RD9:RE9"/>
-    <mergeCell ref="RF9:RG9"/>
-    <mergeCell ref="RH9:RI9"/>
-    <mergeCell ref="RJ9:RK9"/>
-    <mergeCell ref="RL9:RM9"/>
-    <mergeCell ref="RN9:RO9"/>
-    <mergeCell ref="RP9:RQ9"/>
-    <mergeCell ref="RR9:RS9"/>
-    <mergeCell ref="QJ9:QK9"/>
-    <mergeCell ref="QL9:QM9"/>
-    <mergeCell ref="QN9:QO9"/>
-    <mergeCell ref="QP9:QQ9"/>
-    <mergeCell ref="QR9:QS9"/>
-    <mergeCell ref="QT9:QU9"/>
-    <mergeCell ref="QV9:QW9"/>
-    <mergeCell ref="QX9:QY9"/>
-    <mergeCell ref="QZ9:RA9"/>
-    <mergeCell ref="PR9:PS9"/>
-    <mergeCell ref="PT9:PU9"/>
-    <mergeCell ref="PV9:PW9"/>
-    <mergeCell ref="PX9:PY9"/>
-    <mergeCell ref="PZ9:QA9"/>
-    <mergeCell ref="QB9:QC9"/>
-    <mergeCell ref="QD9:QE9"/>
-    <mergeCell ref="QF9:QG9"/>
-    <mergeCell ref="QH9:QI9"/>
-    <mergeCell ref="OZ9:PA9"/>
-    <mergeCell ref="PB9:PC9"/>
-    <mergeCell ref="PD9:PE9"/>
-    <mergeCell ref="PF9:PG9"/>
-    <mergeCell ref="PH9:PI9"/>
-    <mergeCell ref="PJ9:PK9"/>
-    <mergeCell ref="PL9:PM9"/>
-    <mergeCell ref="PN9:PO9"/>
-    <mergeCell ref="PP9:PQ9"/>
-    <mergeCell ref="OH9:OI9"/>
-    <mergeCell ref="OJ9:OK9"/>
-    <mergeCell ref="OL9:OM9"/>
-    <mergeCell ref="ON9:OO9"/>
-    <mergeCell ref="OP9:OQ9"/>
-    <mergeCell ref="OR9:OS9"/>
-    <mergeCell ref="OT9:OU9"/>
-    <mergeCell ref="OV9:OW9"/>
-    <mergeCell ref="OX9:OY9"/>
-    <mergeCell ref="NP9:NQ9"/>
-    <mergeCell ref="NR9:NS9"/>
-    <mergeCell ref="NT9:NU9"/>
-    <mergeCell ref="NV9:NW9"/>
-    <mergeCell ref="NX9:NY9"/>
-    <mergeCell ref="NZ9:OA9"/>
-    <mergeCell ref="OB9:OC9"/>
-    <mergeCell ref="OD9:OE9"/>
-    <mergeCell ref="OF9:OG9"/>
-    <mergeCell ref="MX9:MY9"/>
-    <mergeCell ref="MZ9:NA9"/>
-    <mergeCell ref="NB9:NC9"/>
-    <mergeCell ref="ND9:NE9"/>
-    <mergeCell ref="NF9:NG9"/>
-    <mergeCell ref="NH9:NI9"/>
-    <mergeCell ref="NJ9:NK9"/>
-    <mergeCell ref="NL9:NM9"/>
-    <mergeCell ref="NN9:NO9"/>
-    <mergeCell ref="MF9:MG9"/>
-    <mergeCell ref="MH9:MI9"/>
-    <mergeCell ref="MJ9:MK9"/>
-    <mergeCell ref="ML9:MM9"/>
-    <mergeCell ref="MN9:MO9"/>
-    <mergeCell ref="MP9:MQ9"/>
-    <mergeCell ref="MR9:MS9"/>
-    <mergeCell ref="MT9:MU9"/>
-    <mergeCell ref="MV9:MW9"/>
-    <mergeCell ref="LN9:LO9"/>
-    <mergeCell ref="LP9:LQ9"/>
-    <mergeCell ref="LR9:LS9"/>
-    <mergeCell ref="LT9:LU9"/>
-    <mergeCell ref="LV9:LW9"/>
-    <mergeCell ref="LX9:LY9"/>
-    <mergeCell ref="LZ9:MA9"/>
-    <mergeCell ref="MB9:MC9"/>
-    <mergeCell ref="MD9:ME9"/>
-    <mergeCell ref="KV9:KW9"/>
-    <mergeCell ref="KX9:KY9"/>
-    <mergeCell ref="KZ9:LA9"/>
-    <mergeCell ref="LB9:LC9"/>
-    <mergeCell ref="LD9:LE9"/>
-    <mergeCell ref="LF9:LG9"/>
-    <mergeCell ref="LH9:LI9"/>
-    <mergeCell ref="LJ9:LK9"/>
-    <mergeCell ref="LL9:LM9"/>
-    <mergeCell ref="KD9:KE9"/>
-    <mergeCell ref="KF9:KG9"/>
-    <mergeCell ref="KH9:KI9"/>
-    <mergeCell ref="KJ9:KK9"/>
-    <mergeCell ref="KL9:KM9"/>
-    <mergeCell ref="KN9:KO9"/>
-    <mergeCell ref="KP9:KQ9"/>
-    <mergeCell ref="KR9:KS9"/>
-    <mergeCell ref="KT9:KU9"/>
-    <mergeCell ref="JL9:JM9"/>
-    <mergeCell ref="JN9:JO9"/>
-    <mergeCell ref="JP9:JQ9"/>
-    <mergeCell ref="JR9:JS9"/>
-    <mergeCell ref="JT9:JU9"/>
-    <mergeCell ref="JV9:JW9"/>
-    <mergeCell ref="JX9:JY9"/>
-    <mergeCell ref="JZ9:KA9"/>
-    <mergeCell ref="KB9:KC9"/>
-    <mergeCell ref="IT9:IU9"/>
-    <mergeCell ref="IV9:IW9"/>
-    <mergeCell ref="IX9:IY9"/>
-    <mergeCell ref="IZ9:JA9"/>
-    <mergeCell ref="JB9:JC9"/>
-    <mergeCell ref="JD9:JE9"/>
-    <mergeCell ref="JF9:JG9"/>
-    <mergeCell ref="JH9:JI9"/>
-    <mergeCell ref="JJ9:JK9"/>
-    <mergeCell ref="IB9:IC9"/>
-    <mergeCell ref="ID9:IE9"/>
-    <mergeCell ref="IF9:IG9"/>
-    <mergeCell ref="IH9:II9"/>
-    <mergeCell ref="IJ9:IK9"/>
-    <mergeCell ref="IL9:IM9"/>
-    <mergeCell ref="IN9:IO9"/>
-    <mergeCell ref="IP9:IQ9"/>
-    <mergeCell ref="IR9:IS9"/>
-    <mergeCell ref="HJ9:HK9"/>
-    <mergeCell ref="HL9:HM9"/>
-    <mergeCell ref="HN9:HO9"/>
-    <mergeCell ref="HP9:HQ9"/>
-    <mergeCell ref="HR9:HS9"/>
-    <mergeCell ref="HT9:HU9"/>
-    <mergeCell ref="HV9:HW9"/>
-    <mergeCell ref="HX9:HY9"/>
-    <mergeCell ref="HZ9:IA9"/>
-    <mergeCell ref="GR9:GS9"/>
-    <mergeCell ref="GT9:GU9"/>
-    <mergeCell ref="GV9:GW9"/>
-    <mergeCell ref="GX9:GY9"/>
-    <mergeCell ref="GZ9:HA9"/>
-    <mergeCell ref="HB9:HC9"/>
-    <mergeCell ref="HD9:HE9"/>
-    <mergeCell ref="HF9:HG9"/>
-    <mergeCell ref="HH9:HI9"/>
-    <mergeCell ref="FZ9:GA9"/>
-    <mergeCell ref="GB9:GC9"/>
-    <mergeCell ref="GD9:GE9"/>
-    <mergeCell ref="GF9:GG9"/>
-    <mergeCell ref="GH9:GI9"/>
-    <mergeCell ref="GJ9:GK9"/>
-    <mergeCell ref="GL9:GM9"/>
-    <mergeCell ref="GN9:GO9"/>
-    <mergeCell ref="GP9:GQ9"/>
-    <mergeCell ref="FH9:FI9"/>
-    <mergeCell ref="FJ9:FK9"/>
-    <mergeCell ref="FL9:FM9"/>
-    <mergeCell ref="FN9:FO9"/>
-    <mergeCell ref="FP9:FQ9"/>
-    <mergeCell ref="FR9:FS9"/>
-    <mergeCell ref="FT9:FU9"/>
-    <mergeCell ref="FV9:FW9"/>
-    <mergeCell ref="FX9:FY9"/>
-    <mergeCell ref="EP9:EQ9"/>
-    <mergeCell ref="ER9:ES9"/>
-    <mergeCell ref="ET9:EU9"/>
-    <mergeCell ref="EV9:EW9"/>
-    <mergeCell ref="EX9:EY9"/>
-    <mergeCell ref="EZ9:FA9"/>
-    <mergeCell ref="FB9:FC9"/>
-    <mergeCell ref="FD9:FE9"/>
-    <mergeCell ref="FF9:FG9"/>
-    <mergeCell ref="DX9:DY9"/>
-    <mergeCell ref="DZ9:EA9"/>
-    <mergeCell ref="EB9:EC9"/>
-    <mergeCell ref="ED9:EE9"/>
-    <mergeCell ref="EF9:EG9"/>
-    <mergeCell ref="EH9:EI9"/>
-    <mergeCell ref="EJ9:EK9"/>
-    <mergeCell ref="EL9:EM9"/>
-    <mergeCell ref="EN9:EO9"/>
-    <mergeCell ref="DF9:DG9"/>
-    <mergeCell ref="DH9:DI9"/>
-    <mergeCell ref="DJ9:DK9"/>
-    <mergeCell ref="DL9:DM9"/>
-    <mergeCell ref="DN9:DO9"/>
-    <mergeCell ref="DP9:DQ9"/>
-    <mergeCell ref="DR9:DS9"/>
-    <mergeCell ref="DT9:DU9"/>
-    <mergeCell ref="DV9:DW9"/>
-    <mergeCell ref="CN9:CO9"/>
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CR9:CS9"/>
-    <mergeCell ref="CT9:CU9"/>
-    <mergeCell ref="CV9:CW9"/>
-    <mergeCell ref="CX9:CY9"/>
-    <mergeCell ref="CZ9:DA9"/>
-    <mergeCell ref="DB9:DC9"/>
-    <mergeCell ref="DD9:DE9"/>
-    <mergeCell ref="BV9:BW9"/>
-    <mergeCell ref="BX9:BY9"/>
-    <mergeCell ref="BZ9:CA9"/>
-    <mergeCell ref="CB9:CC9"/>
-    <mergeCell ref="CD9:CE9"/>
-    <mergeCell ref="CF9:CG9"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CJ9:CK9"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BG9"/>
-    <mergeCell ref="BH9:BI9"/>
-    <mergeCell ref="BJ9:BK9"/>
-    <mergeCell ref="BL9:BM9"/>
-    <mergeCell ref="BN9:BO9"/>
-    <mergeCell ref="BP9:BQ9"/>
-    <mergeCell ref="BR9:BS9"/>
-    <mergeCell ref="BT9:BU9"/>
-    <mergeCell ref="AL9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AT9:AU9"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:AY9"/>
-    <mergeCell ref="AZ9:BA9"/>
-    <mergeCell ref="BB9:BC9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="AB9:AC9"/>
-    <mergeCell ref="AD9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AJ9:AK9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15387,8 +15387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCB8985-377B-6D42-B75F-E39DBBF41ABD}">
   <dimension ref="A1:E288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" workbookViewId="0">
-      <selection activeCell="H298" sqref="H298"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="H190" sqref="H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
